--- a/Input Data/Update Elo/Elo By Year.xlsx
+++ b/Input Data/Update Elo/Elo By Year.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/580bce16df9ec0bf/Documents/Navigate/CFP Simulator/Input Data/Update Elo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_5711C0BC8649720E62355476585DCE3A8745086F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{350A4F76-347C-49D2-9B26-12EF24DB65BE}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_35A5F311C659780F62355476585DCE3A8745F9AB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B66C545A-8599-439A-A081-03B43FAC629F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1099,7 +1099,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
@@ -1187,13 +1187,13 @@
         <v>740.53</v>
       </c>
       <c r="M2">
-        <v>744.32</v>
+        <v>743.74</v>
       </c>
       <c r="N2">
-        <v>746.33</v>
+        <v>745.54</v>
       </c>
       <c r="O2">
-        <v>745.92</v>
+        <v>737.81</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
@@ -1234,13 +1234,13 @@
         <v>1269.77</v>
       </c>
       <c r="M3">
-        <v>1366.1</v>
+        <v>1353.33</v>
       </c>
       <c r="N3">
-        <v>1365.19</v>
+        <v>1344.69</v>
       </c>
       <c r="O3">
-        <v>1261.76</v>
+        <v>1132.07</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
@@ -1278,16 +1278,16 @@
         <v>902.79</v>
       </c>
       <c r="L4">
-        <v>1132.22</v>
+        <v>1085.3399999999999</v>
       </c>
       <c r="M4">
-        <v>1120.46</v>
+        <v>1063.0899999999999</v>
       </c>
       <c r="N4">
-        <v>1135.68</v>
+        <v>1063.75</v>
       </c>
       <c r="O4">
-        <v>1116.54</v>
+        <v>808.54</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
@@ -1328,13 +1328,13 @@
         <v>1741.9</v>
       </c>
       <c r="M5">
-        <v>1619.67</v>
+        <v>1610.35</v>
       </c>
       <c r="N5">
-        <v>1602.16</v>
+        <v>1581.24</v>
       </c>
       <c r="O5">
-        <v>1645.98</v>
+        <v>1676.54</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
@@ -1378,10 +1378,10 @@
         <v>750</v>
       </c>
       <c r="N6">
-        <v>747.73</v>
+        <v>746.53</v>
       </c>
       <c r="O6">
-        <v>748.45</v>
+        <v>745.14</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
@@ -1422,13 +1422,13 @@
         <v>750</v>
       </c>
       <c r="M7">
-        <v>749.65</v>
+        <v>749.49</v>
       </c>
       <c r="N7">
-        <v>749.5</v>
+        <v>749.26</v>
       </c>
       <c r="O7">
-        <v>749.75</v>
+        <v>749.26</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
@@ -1469,13 +1469,13 @@
         <v>1312.11</v>
       </c>
       <c r="M8">
-        <v>1403.99</v>
+        <v>1344.64</v>
       </c>
       <c r="N8">
-        <v>1343.13</v>
+        <v>1269.23</v>
       </c>
       <c r="O8">
-        <v>1217.1199999999999</v>
+        <v>994.45</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
@@ -1516,13 +1516,13 @@
         <v>750</v>
       </c>
       <c r="M9">
-        <v>748.56</v>
+        <v>748.05</v>
       </c>
       <c r="N9">
-        <v>749.2</v>
+        <v>748.93</v>
       </c>
       <c r="O9">
-        <v>744.55</v>
+        <v>732.42</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
@@ -1563,13 +1563,13 @@
         <v>750</v>
       </c>
       <c r="M10">
-        <v>748.21</v>
+        <v>747.51</v>
       </c>
       <c r="N10">
-        <v>747.48</v>
+        <v>746.17</v>
       </c>
       <c r="O10">
-        <v>747.85</v>
+        <v>743.1</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
@@ -1610,13 +1610,13 @@
         <v>1276.5899999999999</v>
       </c>
       <c r="M11">
-        <v>1350.41</v>
+        <v>1291.98</v>
       </c>
       <c r="N11">
-        <v>1246.08</v>
+        <v>1175.6600000000001</v>
       </c>
       <c r="O11">
-        <v>1350.85</v>
+        <v>1262.53</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
@@ -1654,16 +1654,16 @@
         <v>1272.03</v>
       </c>
       <c r="L12">
-        <v>1308.99</v>
+        <v>1262.1099999999999</v>
       </c>
       <c r="M12">
-        <v>1275.3</v>
+        <v>1218.49</v>
       </c>
       <c r="N12">
-        <v>1388.25</v>
+        <v>1320.66</v>
       </c>
       <c r="O12">
-        <v>1497.47</v>
+        <v>1540.64</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
@@ -1704,13 +1704,13 @@
         <v>1444.22</v>
       </c>
       <c r="M13">
-        <v>1390.1</v>
+        <v>1337.71</v>
       </c>
       <c r="N13">
-        <v>1319.14</v>
+        <v>1252.01</v>
       </c>
       <c r="O13">
-        <v>1401.92</v>
+        <v>1249.75</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
@@ -1748,16 +1748,16 @@
         <v>1121.07</v>
       </c>
       <c r="L14">
-        <v>1376.53</v>
+        <v>1329.65</v>
       </c>
       <c r="M14">
-        <v>1532.45</v>
+        <v>1471.01</v>
       </c>
       <c r="N14">
-        <v>1465.17</v>
+        <v>1395.09</v>
       </c>
       <c r="O14">
-        <v>1378.26</v>
+        <v>1191.21</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
@@ -1795,16 +1795,16 @@
         <v>1223.58</v>
       </c>
       <c r="L15">
-        <v>1109.43</v>
+        <v>1062.56</v>
       </c>
       <c r="M15">
-        <v>1155.8699999999999</v>
+        <v>1092.4100000000001</v>
       </c>
       <c r="N15">
-        <v>1188.71</v>
+        <v>1116.0899999999999</v>
       </c>
       <c r="O15">
-        <v>1289.53</v>
+        <v>1142.99</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
@@ -1845,13 +1845,13 @@
         <v>750</v>
       </c>
       <c r="M16">
-        <v>749.35</v>
+        <v>749.19</v>
       </c>
       <c r="N16">
-        <v>749.59</v>
+        <v>749.5</v>
       </c>
       <c r="O16">
-        <v>748.69</v>
+        <v>745.61</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
@@ -1892,13 +1892,13 @@
         <v>1288.21</v>
       </c>
       <c r="M17">
-        <v>1362.68</v>
+        <v>1303.03</v>
       </c>
       <c r="N17">
-        <v>1341.13</v>
+        <v>1270.79</v>
       </c>
       <c r="O17">
-        <v>1290.58</v>
+        <v>1144.3900000000001</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
@@ -1936,16 +1936,16 @@
         <v>1546.92</v>
       </c>
       <c r="L18">
-        <v>1437.58</v>
+        <v>1390.7</v>
       </c>
       <c r="M18">
-        <v>1403.15</v>
+        <v>1341.94</v>
       </c>
       <c r="N18">
-        <v>1415.96</v>
+        <v>1343.26</v>
       </c>
       <c r="O18">
-        <v>1479.46</v>
+        <v>1393.48</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
@@ -1986,13 +1986,13 @@
         <v>749.03</v>
       </c>
       <c r="M19">
-        <v>749.31</v>
+        <v>749.22</v>
       </c>
       <c r="N19">
-        <v>749.09</v>
+        <v>748.73</v>
       </c>
       <c r="O19">
-        <v>749.39</v>
+        <v>748.35</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
@@ -2033,13 +2033,13 @@
         <v>1517.14</v>
       </c>
       <c r="M20">
-        <v>1272.75</v>
+        <v>1214.57</v>
       </c>
       <c r="N20">
-        <v>1232.52</v>
+        <v>1160.03</v>
       </c>
       <c r="O20">
-        <v>1228.46</v>
+        <v>1021.16</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
@@ -2077,16 +2077,16 @@
         <v>1522.95</v>
       </c>
       <c r="L21">
-        <v>1346.65</v>
+        <v>1299.78</v>
       </c>
       <c r="M21">
-        <v>1632.95</v>
+        <v>1620.44</v>
       </c>
       <c r="N21">
-        <v>1401.58</v>
+        <v>1333.97</v>
       </c>
       <c r="O21">
-        <v>1338.72</v>
+        <v>1114.99</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
@@ -2127,13 +2127,13 @@
         <v>750</v>
       </c>
       <c r="M22">
-        <v>748.14</v>
+        <v>747.54</v>
       </c>
       <c r="N22">
-        <v>748.71</v>
+        <v>748.19</v>
       </c>
       <c r="O22">
-        <v>748.09</v>
+        <v>743.82</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
@@ -2174,13 +2174,13 @@
         <v>1390.4</v>
       </c>
       <c r="M23">
-        <v>1402.33</v>
+        <v>1345.69</v>
       </c>
       <c r="N23">
-        <v>1350.72</v>
+        <v>1282.1400000000001</v>
       </c>
       <c r="O23">
-        <v>1340.98</v>
+        <v>1246.75</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
@@ -2218,16 +2218,16 @@
         <v>1382.19</v>
       </c>
       <c r="L24">
-        <v>1394.32</v>
+        <v>1347.44</v>
       </c>
       <c r="M24">
-        <v>1352.49</v>
+        <v>1287.02</v>
       </c>
       <c r="N24">
-        <v>1337.74</v>
+        <v>1264.52</v>
       </c>
       <c r="O24">
-        <v>1404.46</v>
+        <v>1242.21</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
@@ -2274,7 +2274,7 @@
         <v>1385.64</v>
       </c>
       <c r="O25">
-        <v>1411.57</v>
+        <v>1385.64</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
@@ -2315,13 +2315,13 @@
         <v>1561.83</v>
       </c>
       <c r="M26">
-        <v>1427.75</v>
+        <v>1419.06</v>
       </c>
       <c r="N26">
-        <v>1458</v>
+        <v>1387.87</v>
       </c>
       <c r="O26">
-        <v>1363.45</v>
+        <v>1163.7</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
@@ -2362,13 +2362,13 @@
         <v>750</v>
       </c>
       <c r="M27">
-        <v>749.06</v>
+        <v>748.88</v>
       </c>
       <c r="N27">
-        <v>747.8</v>
+        <v>746.94</v>
       </c>
       <c r="O27">
-        <v>747.97</v>
+        <v>744.78</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
@@ -2409,13 +2409,13 @@
         <v>1438.05</v>
       </c>
       <c r="M28">
-        <v>1178.01</v>
+        <v>1123.1300000000001</v>
       </c>
       <c r="N28">
-        <v>1266.29</v>
+        <v>1194.72</v>
       </c>
       <c r="O28">
-        <v>1233.9100000000001</v>
+        <v>1025.5</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
@@ -2459,10 +2459,10 @@
         <v>748.33</v>
       </c>
       <c r="N29">
-        <v>748.45</v>
+        <v>748.4</v>
       </c>
       <c r="O29">
-        <v>746.41</v>
+        <v>740.68</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
@@ -2503,13 +2503,13 @@
         <v>1345.41</v>
       </c>
       <c r="M30">
-        <v>1370.56</v>
+        <v>1320.4</v>
       </c>
       <c r="N30">
-        <v>1336.87</v>
+        <v>1270.6500000000001</v>
       </c>
       <c r="O30">
-        <v>1372.18</v>
+        <v>1196.44</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
@@ -2553,10 +2553,10 @@
         <v>811.98</v>
       </c>
       <c r="N31">
-        <v>779.98</v>
+        <v>779.51</v>
       </c>
       <c r="O31">
-        <v>764.53</v>
+        <v>778.78</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
@@ -2600,10 +2600,10 @@
         <v>735.49</v>
       </c>
       <c r="N32">
-        <v>742.23</v>
+        <v>741.96</v>
       </c>
       <c r="O32">
-        <v>745.57</v>
+        <v>740.1</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
@@ -2644,13 +2644,13 @@
         <v>752.08</v>
       </c>
       <c r="M33">
-        <v>746.48</v>
+        <v>744.64</v>
       </c>
       <c r="N33">
-        <v>748.03</v>
+        <v>747.08</v>
       </c>
       <c r="O33">
-        <v>748.27</v>
+        <v>744.57</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
@@ -2688,16 +2688,16 @@
         <v>1414.32</v>
       </c>
       <c r="L34">
-        <v>1430.69</v>
+        <v>1383.82</v>
       </c>
       <c r="M34">
-        <v>1433.03</v>
+        <v>1368.18</v>
       </c>
       <c r="N34">
-        <v>1388.73</v>
+        <v>1313.66</v>
       </c>
       <c r="O34">
-        <v>1428.22</v>
+        <v>1291.55</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
@@ -2738,13 +2738,13 @@
         <v>1210.07</v>
       </c>
       <c r="M35">
-        <v>1429.44</v>
+        <v>1374.38</v>
       </c>
       <c r="N35">
-        <v>1186.72</v>
+        <v>1115.6099999999999</v>
       </c>
       <c r="O35">
-        <v>1249.8699999999999</v>
+        <v>1058.8900000000001</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
@@ -2785,13 +2785,13 @@
         <v>750</v>
       </c>
       <c r="M36">
-        <v>748.95</v>
+        <v>748.68</v>
       </c>
       <c r="N36">
-        <v>749.24</v>
+        <v>749.05</v>
       </c>
       <c r="O36">
-        <v>748.93</v>
+        <v>747.19</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
@@ -2829,16 +2829,16 @@
         <v>963</v>
       </c>
       <c r="L37">
-        <v>1174.17</v>
+        <v>1127.29</v>
       </c>
       <c r="M37">
-        <v>1163.67</v>
+        <v>1101.3800000000001</v>
       </c>
       <c r="N37">
-        <v>1196.1600000000001</v>
+        <v>1121.8</v>
       </c>
       <c r="O37">
-        <v>1231.24</v>
+        <v>1017.65</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
@@ -2879,13 +2879,13 @@
         <v>746.29</v>
       </c>
       <c r="M38">
-        <v>748</v>
+        <v>747.94</v>
       </c>
       <c r="N38">
-        <v>748.55</v>
+        <v>748.26</v>
       </c>
       <c r="O38">
-        <v>749.27</v>
+        <v>748.26</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
@@ -2926,13 +2926,13 @@
         <v>1593.74</v>
       </c>
       <c r="M39">
-        <v>1641.76</v>
+        <v>1634.73</v>
       </c>
       <c r="N39">
-        <v>1422.94</v>
+        <v>1354.16</v>
       </c>
       <c r="O39">
-        <v>1350.44</v>
+        <v>1135.04</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
@@ -2976,10 +2976,10 @@
         <v>755.27</v>
       </c>
       <c r="N40">
-        <v>751.72</v>
+        <v>751.3</v>
       </c>
       <c r="O40">
-        <v>749.07</v>
+        <v>745.21</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
@@ -3020,13 +3020,13 @@
         <v>1599.4</v>
       </c>
       <c r="M41">
-        <v>1515.41</v>
+        <v>1500.19</v>
       </c>
       <c r="N41">
-        <v>1425.1</v>
+        <v>1403.52</v>
       </c>
       <c r="O41">
-        <v>1492.36</v>
+        <v>1424.97</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
@@ -3067,13 +3067,13 @@
         <v>1386.67</v>
       </c>
       <c r="M42">
-        <v>1363.53</v>
+        <v>1352.88</v>
       </c>
       <c r="N42">
-        <v>1276.31</v>
+        <v>1206.05</v>
       </c>
       <c r="O42">
-        <v>1368.14</v>
+        <v>1391.26</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
@@ -3114,13 +3114,13 @@
         <v>750</v>
       </c>
       <c r="M43">
-        <v>749.47</v>
+        <v>749.25</v>
       </c>
       <c r="N43">
-        <v>743.61</v>
+        <v>741.18</v>
       </c>
       <c r="O43">
-        <v>746.26</v>
+        <v>739.35</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
@@ -3161,13 +3161,13 @@
         <v>1397.64</v>
       </c>
       <c r="M44">
-        <v>1359.72</v>
+        <v>1308.3900000000001</v>
       </c>
       <c r="N44">
-        <v>1302</v>
+        <v>1233.8</v>
       </c>
       <c r="O44">
-        <v>1358.91</v>
+        <v>1168.28</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
@@ -3208,13 +3208,13 @@
         <v>1204.71</v>
       </c>
       <c r="M45">
-        <v>1161.2</v>
+        <v>1104.04</v>
       </c>
       <c r="N45">
-        <v>1199.4100000000001</v>
+        <v>1130.5</v>
       </c>
       <c r="O45">
-        <v>1279.0999999999999</v>
+        <v>1126.6400000000001</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
@@ -3255,13 +3255,13 @@
         <v>1211.2</v>
       </c>
       <c r="M46">
-        <v>1118.49</v>
+        <v>1061.3</v>
       </c>
       <c r="N46">
-        <v>1265.8499999999999</v>
+        <v>1194.48</v>
       </c>
       <c r="O46">
-        <v>1207.53</v>
+        <v>973.31</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
@@ -3302,13 +3302,13 @@
         <v>750</v>
       </c>
       <c r="M47">
-        <v>749.57</v>
+        <v>749.39</v>
       </c>
       <c r="N47">
-        <v>811.73</v>
+        <v>811.32</v>
       </c>
       <c r="O47">
-        <v>780.66</v>
+        <v>810.82</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
@@ -3355,7 +3355,7 @@
         <v>750</v>
       </c>
       <c r="O48">
-        <v>748.01</v>
+        <v>743.23</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
@@ -3393,16 +3393,16 @@
         <v>1303.6500000000001</v>
       </c>
       <c r="L49">
-        <v>1261.93</v>
+        <v>1215.06</v>
       </c>
       <c r="M49">
-        <v>1257.99</v>
+        <v>1191.6600000000001</v>
       </c>
       <c r="N49">
-        <v>1472.05</v>
+        <v>1398.03</v>
       </c>
       <c r="O49">
-        <v>1427.19</v>
+        <v>1290.6199999999999</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
@@ -3443,13 +3443,13 @@
         <v>750</v>
       </c>
       <c r="M50">
-        <v>810.55</v>
+        <v>810.26</v>
       </c>
       <c r="N50">
-        <v>775.65</v>
+        <v>773.09</v>
       </c>
       <c r="O50">
-        <v>761.07</v>
+        <v>767.71</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
@@ -3487,16 +3487,16 @@
         <v>1122.0899999999999</v>
       </c>
       <c r="L51">
-        <v>1286.8900000000001</v>
+        <v>1240.02</v>
       </c>
       <c r="M51">
-        <v>1373.14</v>
+        <v>1311.72</v>
       </c>
       <c r="N51">
-        <v>1361.64</v>
+        <v>1289.52</v>
       </c>
       <c r="O51">
-        <v>1228.3599999999999</v>
+        <v>1010.94</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
@@ -3537,13 +3537,13 @@
         <v>750</v>
       </c>
       <c r="M52">
-        <v>749.04</v>
+        <v>748.63</v>
       </c>
       <c r="N52">
-        <v>748.92</v>
+        <v>748.4</v>
       </c>
       <c r="O52">
-        <v>708.15</v>
+        <v>665.96</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
@@ -3584,13 +3584,13 @@
         <v>747.25</v>
       </c>
       <c r="M53">
-        <v>747.72</v>
+        <v>747.34</v>
       </c>
       <c r="N53">
-        <v>783.09</v>
+        <v>782.47</v>
       </c>
       <c r="O53">
-        <v>765.57</v>
+        <v>779.19</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
@@ -3628,16 +3628,16 @@
         <v>1201.1400000000001</v>
       </c>
       <c r="L54">
-        <v>1260.76</v>
+        <v>1213.8800000000001</v>
       </c>
       <c r="M54">
-        <v>1236.83</v>
+        <v>1178.8800000000001</v>
       </c>
       <c r="N54">
-        <v>1327.81</v>
+        <v>1256.75</v>
       </c>
       <c r="O54">
-        <v>1206.9100000000001</v>
+        <v>973.41</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
@@ -3678,13 +3678,13 @@
         <v>750</v>
       </c>
       <c r="M55">
-        <v>810.64</v>
+        <v>809.87</v>
       </c>
       <c r="N55">
-        <v>778.84</v>
+        <v>777.77</v>
       </c>
       <c r="O55">
-        <v>764.23</v>
+        <v>777.13</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
@@ -3725,13 +3725,13 @@
         <v>750</v>
       </c>
       <c r="M56">
-        <v>748.87</v>
+        <v>748.79</v>
       </c>
       <c r="N56">
-        <v>748.59</v>
+        <v>748.04</v>
       </c>
       <c r="O56">
-        <v>748.95</v>
+        <v>746.85</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
@@ -3769,16 +3769,16 @@
         <v>1554.57</v>
       </c>
       <c r="L57">
-        <v>1508.55</v>
+        <v>1461.68</v>
       </c>
       <c r="M57">
-        <v>1359.31</v>
+        <v>1294.01</v>
       </c>
       <c r="N57">
-        <v>1403.13</v>
+        <v>1332.19</v>
       </c>
       <c r="O57">
-        <v>1403.79</v>
+        <v>1247.1300000000001</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
@@ -3819,13 +3819,13 @@
         <v>750</v>
       </c>
       <c r="M58">
-        <v>746.32</v>
+        <v>744.81</v>
       </c>
       <c r="N58">
-        <v>747.53</v>
+        <v>746.39</v>
       </c>
       <c r="O58">
-        <v>744.62</v>
+        <v>732.3</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
@@ -3863,16 +3863,16 @@
         <v>1378.11</v>
       </c>
       <c r="L59">
-        <v>1192.17</v>
+        <v>1145.29</v>
       </c>
       <c r="M59">
-        <v>1169.47</v>
+        <v>1107.92</v>
       </c>
       <c r="N59">
-        <v>1211.3900000000001</v>
+        <v>1136.1500000000001</v>
       </c>
       <c r="O59">
-        <v>1182.97</v>
+        <v>924.55</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.35">
@@ -3910,16 +3910,16 @@
         <v>1211.3399999999999</v>
       </c>
       <c r="L60">
-        <v>1116.3800000000001</v>
+        <v>1069.51</v>
       </c>
       <c r="M60">
-        <v>1071.0999999999999</v>
+        <v>1007.75</v>
       </c>
       <c r="N60">
-        <v>1141.3499999999999</v>
+        <v>1066.3</v>
       </c>
       <c r="O60">
-        <v>1139.1300000000001</v>
+        <v>846.14</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.35">
@@ -3957,16 +3957,16 @@
         <v>1396.98</v>
       </c>
       <c r="L61">
-        <v>1328.52</v>
+        <v>1281.6400000000001</v>
       </c>
       <c r="M61">
-        <v>1408.64</v>
+        <v>1343.53</v>
       </c>
       <c r="N61">
-        <v>1481.67</v>
+        <v>1457.09</v>
       </c>
       <c r="O61">
-        <v>1620.96</v>
+        <v>1628.76</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.35">
@@ -4007,13 +4007,13 @@
         <v>750</v>
       </c>
       <c r="M62">
-        <v>747.68</v>
+        <v>746.71</v>
       </c>
       <c r="N62">
-        <v>747.28</v>
+        <v>745.99</v>
       </c>
       <c r="O62">
-        <v>809.97</v>
+        <v>867.04</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.35">
@@ -4054,13 +4054,13 @@
         <v>1205.8800000000001</v>
       </c>
       <c r="M63">
-        <v>1353.13</v>
+        <v>1343.84</v>
       </c>
       <c r="N63">
-        <v>1432.65</v>
+        <v>1366.3</v>
       </c>
       <c r="O63">
-        <v>1355.2</v>
+        <v>1304.01</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
@@ -4101,13 +4101,13 @@
         <v>750</v>
       </c>
       <c r="M64">
-        <v>749.32</v>
+        <v>749.02</v>
       </c>
       <c r="N64">
-        <v>749.49</v>
+        <v>749.31</v>
       </c>
       <c r="O64">
-        <v>749.07</v>
+        <v>747</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.35">
@@ -4148,13 +4148,13 @@
         <v>750</v>
       </c>
       <c r="M65">
-        <v>747.55</v>
+        <v>746.53</v>
       </c>
       <c r="N65">
-        <v>745.66</v>
+        <v>743.75</v>
       </c>
       <c r="O65">
-        <v>743.38</v>
+        <v>729.22</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.35">
@@ -4195,13 +4195,13 @@
         <v>1561.62</v>
       </c>
       <c r="M66">
-        <v>1720.25</v>
+        <v>1710.04</v>
       </c>
       <c r="N66">
-        <v>1732.38</v>
+        <v>1715.27</v>
       </c>
       <c r="O66">
-        <v>1688.09</v>
+        <v>1777.38</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.35">
@@ -4239,16 +4239,16 @@
         <v>1008</v>
       </c>
       <c r="L67">
-        <v>1271.72</v>
+        <v>1224.8499999999999</v>
       </c>
       <c r="M67">
-        <v>1212.24</v>
+        <v>1147.82</v>
       </c>
       <c r="N67">
-        <v>1234.6400000000001</v>
+        <v>1163.53</v>
       </c>
       <c r="O67">
-        <v>1274.72</v>
+        <v>1113.27</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.35">
@@ -4286,16 +4286,16 @@
         <v>829</v>
       </c>
       <c r="L68">
-        <v>1277.04</v>
+        <v>1230.17</v>
       </c>
       <c r="M68">
-        <v>1386.78</v>
+        <v>1325.96</v>
       </c>
       <c r="N68">
-        <v>1258.2</v>
+        <v>1186.8599999999999</v>
       </c>
       <c r="O68">
-        <v>1269.8599999999999</v>
+        <v>1103.47</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.35">
@@ -4333,16 +4333,16 @@
         <v>1288.3499999999999</v>
       </c>
       <c r="L69">
-        <v>1331.76</v>
+        <v>1284.8800000000001</v>
       </c>
       <c r="M69">
-        <v>1300.21</v>
+        <v>1233.8499999999999</v>
       </c>
       <c r="N69">
-        <v>1377.14</v>
+        <v>1303.52</v>
       </c>
       <c r="O69">
-        <v>1409.43</v>
+        <v>1255.02</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.35">
@@ -4383,13 +4383,13 @@
         <v>750</v>
       </c>
       <c r="M70">
-        <v>743.15</v>
+        <v>740.55</v>
       </c>
       <c r="N70">
-        <v>743.54</v>
+        <v>740.53</v>
       </c>
       <c r="O70">
-        <v>746.33</v>
+        <v>739.23</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.35">
@@ -4430,13 +4430,13 @@
         <v>750</v>
       </c>
       <c r="M71">
-        <v>744.23</v>
+        <v>743.94</v>
       </c>
       <c r="N71">
-        <v>747.12</v>
+        <v>746.97</v>
       </c>
       <c r="O71">
-        <v>748.56</v>
+        <v>746.97</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.35">
@@ -4474,16 +4474,16 @@
         <v>1324.05</v>
       </c>
       <c r="L72">
-        <v>1336.06</v>
+        <v>1289.18</v>
       </c>
       <c r="M72">
-        <v>1286.79</v>
+        <v>1228.5999999999999</v>
       </c>
       <c r="N72">
-        <v>1176.1400000000001</v>
+        <v>1106.76</v>
       </c>
       <c r="O72">
-        <v>1260.6500000000001</v>
+        <v>1087.5999999999999</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.35">
@@ -4568,16 +4568,16 @@
         <v>1297.02</v>
       </c>
       <c r="L74">
-        <v>1320.04</v>
+        <v>1273.17</v>
       </c>
       <c r="M74">
-        <v>1514.82</v>
+        <v>1499.74</v>
       </c>
       <c r="N74">
-        <v>1429.75</v>
+        <v>1356.45</v>
       </c>
       <c r="O74">
-        <v>1369.47</v>
+        <v>1180.3599999999999</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.35">
@@ -4618,13 +4618,13 @@
         <v>744.25</v>
       </c>
       <c r="M75">
-        <v>746.22</v>
+        <v>745.83</v>
       </c>
       <c r="N75">
-        <v>745.75</v>
+        <v>744.29</v>
       </c>
       <c r="O75">
-        <v>747.29</v>
+        <v>742.25</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.35">
@@ -4665,13 +4665,13 @@
         <v>750</v>
       </c>
       <c r="M76">
-        <v>749.51</v>
+        <v>749.47</v>
       </c>
       <c r="N76">
-        <v>746.44</v>
+        <v>744.77</v>
       </c>
       <c r="O76">
-        <v>747.04</v>
+        <v>740.86</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.35">
@@ -4712,13 +4712,13 @@
         <v>975.32</v>
       </c>
       <c r="M77">
-        <v>855.27</v>
+        <v>854.87</v>
       </c>
       <c r="N77">
-        <v>800.53</v>
+        <v>799.77</v>
       </c>
       <c r="O77">
-        <v>830.08</v>
+        <v>900.32</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.35">
@@ -4759,13 +4759,13 @@
         <v>750</v>
       </c>
       <c r="M78">
-        <v>749.46</v>
+        <v>749.44</v>
       </c>
       <c r="N78">
-        <v>746.9</v>
+        <v>745.77</v>
       </c>
       <c r="O78">
-        <v>746.18</v>
+        <v>738.2</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.35">
@@ -4803,16 +4803,16 @@
         <v>1353.63</v>
       </c>
       <c r="L79">
-        <v>1359.95</v>
+        <v>1313.08</v>
       </c>
       <c r="M79">
-        <v>1416.16</v>
+        <v>1355.26</v>
       </c>
       <c r="N79">
-        <v>1419.58</v>
+        <v>1347.42</v>
       </c>
       <c r="O79">
-        <v>1448.86</v>
+        <v>1333.61</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.35">
@@ -4853,13 +4853,13 @@
         <v>750</v>
       </c>
       <c r="M80">
-        <v>748.06</v>
+        <v>747.86</v>
       </c>
       <c r="N80">
-        <v>748.81</v>
+        <v>748.59</v>
       </c>
       <c r="O80">
-        <v>749.4</v>
+        <v>748.59</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.35">
@@ -4900,13 +4900,13 @@
         <v>750</v>
       </c>
       <c r="M81">
-        <v>810.51</v>
+        <v>809.7</v>
       </c>
       <c r="N81">
-        <v>841.98</v>
+        <v>841.16</v>
       </c>
       <c r="O81">
-        <v>790.99</v>
+        <v>825.3</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.35">
@@ -4947,13 +4947,13 @@
         <v>1496.26</v>
       </c>
       <c r="M82">
-        <v>1306.1300000000001</v>
+        <v>1249.01</v>
       </c>
       <c r="N82">
-        <v>1353.82</v>
+        <v>1281.6300000000001</v>
       </c>
       <c r="O82">
-        <v>1382.81</v>
+        <v>1203.56</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.35">
@@ -4994,13 +4994,13 @@
         <v>750</v>
       </c>
       <c r="M83">
-        <v>749.4</v>
+        <v>749.35</v>
       </c>
       <c r="N83">
-        <v>749.3</v>
+        <v>749.05</v>
       </c>
       <c r="O83">
-        <v>746.45</v>
+        <v>738.52</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.35">
@@ -5041,13 +5041,13 @@
         <v>1517.25</v>
       </c>
       <c r="M84">
-        <v>1482.17</v>
+        <v>1423.36</v>
       </c>
       <c r="N84">
-        <v>1507.97</v>
+        <v>1436.62</v>
       </c>
       <c r="O84">
-        <v>1513.26</v>
+        <v>1495.8</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.35">
@@ -5088,13 +5088,13 @@
         <v>1530.35</v>
       </c>
       <c r="M85">
-        <v>1452.03</v>
+        <v>1393.26</v>
       </c>
       <c r="N85">
-        <v>1373.55</v>
+        <v>1304.4000000000001</v>
       </c>
       <c r="O85">
-        <v>1478.67</v>
+        <v>1392.37</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.35">
@@ -5135,13 +5135,13 @@
         <v>750</v>
       </c>
       <c r="M86">
-        <v>744.19</v>
+        <v>741.99</v>
       </c>
       <c r="N86">
-        <v>747.1</v>
+        <v>746</v>
       </c>
       <c r="O86">
-        <v>747.19</v>
+        <v>741.66</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.35">
@@ -5182,13 +5182,13 @@
         <v>1148.48</v>
       </c>
       <c r="M87">
-        <v>1325.43</v>
+        <v>1322.69</v>
       </c>
       <c r="N87">
-        <v>1344.73</v>
+        <v>1333.24</v>
       </c>
       <c r="O87">
-        <v>1268.55</v>
+        <v>1198.82</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.35">
@@ -5232,10 +5232,10 @@
         <v>1265.6199999999999</v>
       </c>
       <c r="N88">
-        <v>1318.05</v>
+        <v>1296.83</v>
       </c>
       <c r="O88">
-        <v>1505.35</v>
+        <v>1525.08</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.35">
@@ -5273,16 +5273,16 @@
         <v>1253.67</v>
       </c>
       <c r="L89">
-        <v>1249.56</v>
+        <v>1202.68</v>
       </c>
       <c r="M89">
-        <v>1306.29</v>
+        <v>1243.52</v>
       </c>
       <c r="N89">
-        <v>1368.43</v>
+        <v>1299.77</v>
       </c>
       <c r="O89">
-        <v>1433.51</v>
+        <v>1394.86</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.35">
@@ -5320,16 +5320,16 @@
         <v>1468.38</v>
       </c>
       <c r="L90">
-        <v>1343.63</v>
+        <v>1296.76</v>
       </c>
       <c r="M90">
-        <v>1457.6</v>
+        <v>1397.64</v>
       </c>
       <c r="N90">
-        <v>1555.6</v>
+        <v>1486.91</v>
       </c>
       <c r="O90">
-        <v>1463.93</v>
+        <v>1460.55</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.35">
@@ -5370,13 +5370,13 @@
         <v>1347.13</v>
       </c>
       <c r="M91">
-        <v>1230.82</v>
+        <v>1173.95</v>
       </c>
       <c r="N91">
-        <v>1252.79</v>
+        <v>1181.8699999999999</v>
       </c>
       <c r="O91">
-        <v>1051.8599999999999</v>
+        <v>683.8</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.35">
@@ -5414,16 +5414,16 @@
         <v>1432.68</v>
       </c>
       <c r="L92">
-        <v>1466.78</v>
+        <v>1419.91</v>
       </c>
       <c r="M92">
-        <v>1459.43</v>
+        <v>1443.39</v>
       </c>
       <c r="N92">
-        <v>1436.05</v>
+        <v>1365.74</v>
       </c>
       <c r="O92">
-        <v>1441.85</v>
+        <v>1323.5</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.35">
@@ -5467,10 +5467,10 @@
         <v>748.64</v>
       </c>
       <c r="N93">
-        <v>745.02</v>
+        <v>742.49</v>
       </c>
       <c r="O93">
-        <v>747.31</v>
+        <v>741.86</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.35">
@@ -5511,13 +5511,13 @@
         <v>750</v>
       </c>
       <c r="M94">
-        <v>749.3</v>
+        <v>749.01</v>
       </c>
       <c r="N94">
-        <v>744.1</v>
+        <v>741.05</v>
       </c>
       <c r="O94">
-        <v>746.48</v>
+        <v>739.15</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.35">
@@ -5558,13 +5558,13 @@
         <v>1407.63</v>
       </c>
       <c r="M95">
-        <v>1311.55</v>
+        <v>1253.95</v>
       </c>
       <c r="N95">
-        <v>1239.01</v>
+        <v>1167.0899999999999</v>
       </c>
       <c r="O95">
-        <v>1462.51</v>
+        <v>1424.06</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.35">
@@ -5605,13 +5605,13 @@
         <v>1433.28</v>
       </c>
       <c r="M96">
-        <v>1527.46</v>
+        <v>1517.92</v>
       </c>
       <c r="N96">
-        <v>1302.21</v>
+        <v>1230.32</v>
       </c>
       <c r="O96">
-        <v>1239.99</v>
+        <v>1042.33</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.35">
@@ -5649,16 +5649,16 @@
         <v>1757.04</v>
       </c>
       <c r="L97">
-        <v>1521.54</v>
+        <v>1474.67</v>
       </c>
       <c r="M97">
-        <v>1409.95</v>
+        <v>1347.35</v>
       </c>
       <c r="N97">
-        <v>1517.9</v>
+        <v>1447.03</v>
       </c>
       <c r="O97">
-        <v>1477.92</v>
+        <v>1491.18</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.35">
@@ -5696,16 +5696,16 @@
         <v>1277.1300000000001</v>
       </c>
       <c r="L98">
-        <v>1219.74</v>
+        <v>1172.8599999999999</v>
       </c>
       <c r="M98">
-        <v>1122.8</v>
+        <v>1059.43</v>
       </c>
       <c r="N98">
-        <v>1174.67</v>
+        <v>1099.72</v>
       </c>
       <c r="O98">
-        <v>1109.0999999999999</v>
+        <v>784.3</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.35">
@@ -5743,16 +5743,16 @@
         <v>1172.07</v>
       </c>
       <c r="L99">
-        <v>1021.47</v>
+        <v>974.59</v>
       </c>
       <c r="M99">
-        <v>1170.6500000000001</v>
+        <v>1107.0999999999999</v>
       </c>
       <c r="N99">
-        <v>1248.9100000000001</v>
+        <v>1176.72</v>
       </c>
       <c r="O99">
-        <v>1146.2</v>
+        <v>856.6</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.35">
@@ -5790,16 +5790,16 @@
         <v>1375.56</v>
       </c>
       <c r="L100">
-        <v>1384.25</v>
+        <v>1337.37</v>
       </c>
       <c r="M100">
-        <v>1364.65</v>
+        <v>1300.49</v>
       </c>
       <c r="N100">
-        <v>1478.2</v>
+        <v>1408.54</v>
       </c>
       <c r="O100">
-        <v>1559.51</v>
+        <v>1491.58</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.35">
@@ -5840,13 +5840,13 @@
         <v>750</v>
       </c>
       <c r="M101">
-        <v>790.46</v>
+        <v>786.98</v>
       </c>
       <c r="N101">
-        <v>762.99</v>
+        <v>757.62</v>
       </c>
       <c r="O101">
-        <v>752.81</v>
+        <v>745.53</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.35">
@@ -5887,13 +5887,13 @@
         <v>1262.6400000000001</v>
       </c>
       <c r="M102">
-        <v>1261.6500000000001</v>
+        <v>1201.02</v>
       </c>
       <c r="N102">
-        <v>1376.02</v>
+        <v>1305.44</v>
       </c>
       <c r="O102">
-        <v>1288.07</v>
+        <v>1137.92</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.35">
@@ -5934,13 +5934,13 @@
         <v>1310.7</v>
       </c>
       <c r="M103">
-        <v>1442.02</v>
+        <v>1383.15</v>
       </c>
       <c r="N103">
-        <v>1456.75</v>
+        <v>1385.54</v>
       </c>
       <c r="O103">
-        <v>1432.1</v>
+        <v>1303.69</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.35">
@@ -5978,16 +5978,16 @@
         <v>750</v>
       </c>
       <c r="L104">
-        <v>1053.6400000000001</v>
+        <v>1006.76</v>
       </c>
       <c r="M104">
-        <v>1021.49</v>
+        <v>965.51</v>
       </c>
       <c r="N104">
-        <v>1096.6199999999999</v>
+        <v>1023.71</v>
       </c>
       <c r="O104">
-        <v>1218.21</v>
+        <v>997.92</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.35">
@@ -6028,13 +6028,13 @@
         <v>750</v>
       </c>
       <c r="M105">
-        <v>749.57</v>
+        <v>749.38</v>
       </c>
       <c r="N105">
-        <v>746.35</v>
+        <v>744.4</v>
       </c>
       <c r="O105">
-        <v>747.47</v>
+        <v>742.03</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.35">
@@ -6075,13 +6075,13 @@
         <v>1332.79</v>
       </c>
       <c r="M106">
-        <v>1306.28</v>
+        <v>1243.8</v>
       </c>
       <c r="N106">
-        <v>1317.9</v>
+        <v>1244.6300000000001</v>
       </c>
       <c r="O106">
-        <v>1383.34</v>
+        <v>1357.92</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.35">
@@ -6125,10 +6125,10 @@
         <v>749.29</v>
       </c>
       <c r="N107">
-        <v>749.16</v>
+        <v>748.86</v>
       </c>
       <c r="O107">
-        <v>749.04</v>
+        <v>747.04</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.35">
@@ -6169,13 +6169,13 @@
         <v>1387.49</v>
       </c>
       <c r="M108">
-        <v>1442.24</v>
+        <v>1379.02</v>
       </c>
       <c r="N108">
-        <v>1359.66</v>
+        <v>1286.29</v>
       </c>
       <c r="O108">
-        <v>1427.94</v>
+        <v>1291.3800000000001</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.35">
@@ -6216,13 +6216,13 @@
         <v>1353.06</v>
       </c>
       <c r="M109">
-        <v>1325.24</v>
+        <v>1267.99</v>
       </c>
       <c r="N109">
-        <v>1258.5999999999999</v>
+        <v>1186.1300000000001</v>
       </c>
       <c r="O109">
-        <v>1376.86</v>
+        <v>1340.77</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.35">
@@ -6260,16 +6260,16 @@
         <v>1540.8</v>
       </c>
       <c r="L110">
-        <v>1387.23</v>
+        <v>1340.36</v>
       </c>
       <c r="M110">
-        <v>1563.47</v>
+        <v>1552.51</v>
       </c>
       <c r="N110">
-        <v>1637.51</v>
+        <v>1617.8</v>
       </c>
       <c r="O110">
-        <v>1660.04</v>
+        <v>1718.35</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.35">
@@ -6307,16 +6307,16 @@
         <v>1356.18</v>
       </c>
       <c r="L111">
-        <v>1377.96</v>
+        <v>1331.09</v>
       </c>
       <c r="M111">
-        <v>1541.66</v>
+        <v>1528.45</v>
       </c>
       <c r="N111">
-        <v>1411.28</v>
+        <v>1342.29</v>
       </c>
       <c r="O111">
-        <v>1408.1</v>
+        <v>1254.26</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.35">
@@ -6354,16 +6354,16 @@
         <v>1137.9000000000001</v>
       </c>
       <c r="L112">
-        <v>1220.51</v>
+        <v>1173.6300000000001</v>
       </c>
       <c r="M112">
-        <v>1294.8900000000001</v>
+        <v>1233.8699999999999</v>
       </c>
       <c r="N112">
-        <v>1318.55</v>
+        <v>1245.76</v>
       </c>
       <c r="O112">
-        <v>1251.27</v>
+        <v>1065.44</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.35">
@@ -6401,16 +6401,16 @@
         <v>1468.38</v>
       </c>
       <c r="L113">
-        <v>1422.44</v>
+        <v>1375.57</v>
       </c>
       <c r="M113">
-        <v>1516.36</v>
+        <v>1458.41</v>
       </c>
       <c r="N113">
-        <v>1497.46</v>
+        <v>1425.01</v>
       </c>
       <c r="O113">
-        <v>1374.97</v>
+        <v>1185.3800000000001</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.35">
@@ -6448,16 +6448,16 @@
         <v>1299.06</v>
       </c>
       <c r="L114">
-        <v>1473.14</v>
+        <v>1426.26</v>
       </c>
       <c r="M114">
-        <v>1495.91</v>
+        <v>1482.03</v>
       </c>
       <c r="N114">
-        <v>1390.15</v>
+        <v>1321.29</v>
       </c>
       <c r="O114">
-        <v>1517.06</v>
+        <v>1510.85</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.35">
@@ -6495,16 +6495,16 @@
         <v>1374.54</v>
       </c>
       <c r="L115">
-        <v>1434.48</v>
+        <v>1387.6</v>
       </c>
       <c r="M115">
-        <v>1415.1</v>
+        <v>1353.54</v>
       </c>
       <c r="N115">
-        <v>1511.35</v>
+        <v>1440.87</v>
       </c>
       <c r="O115">
-        <v>1336.9</v>
+        <v>1111.24</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.35">
@@ -6589,16 +6589,16 @@
         <v>1339.35</v>
       </c>
       <c r="L117">
-        <v>1360.76</v>
+        <v>1313.89</v>
       </c>
       <c r="M117">
-        <v>1375.32</v>
+        <v>1312.25</v>
       </c>
       <c r="N117">
-        <v>1425.45</v>
+        <v>1353.8</v>
       </c>
       <c r="O117">
-        <v>1537.93</v>
+        <v>1547.51</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.35">
@@ -6642,10 +6642,10 @@
         <v>749.75</v>
       </c>
       <c r="N118">
-        <v>749.8</v>
+        <v>749.76</v>
       </c>
       <c r="O118">
-        <v>749.26</v>
+        <v>747.6</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.35">
@@ -6686,13 +6686,13 @@
         <v>750</v>
       </c>
       <c r="M119">
-        <v>748.03</v>
+        <v>747.2</v>
       </c>
       <c r="N119">
-        <v>749.01</v>
+        <v>748.6</v>
       </c>
       <c r="O119">
-        <v>747.41</v>
+        <v>741.29</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.35">
@@ -6739,7 +6739,7 @@
         <v>781.17</v>
       </c>
       <c r="O120">
-        <v>765.59</v>
+        <v>781.17</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.35">
@@ -6780,13 +6780,13 @@
         <v>750</v>
       </c>
       <c r="M121">
-        <v>748.95</v>
+        <v>748.51</v>
       </c>
       <c r="N121">
-        <v>749.04</v>
+        <v>748.8</v>
       </c>
       <c r="O121">
-        <v>749.52</v>
+        <v>748.8</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.35">
@@ -6827,13 +6827,13 @@
         <v>750</v>
       </c>
       <c r="M122">
-        <v>749.03</v>
+        <v>748.65</v>
       </c>
       <c r="N122">
-        <v>747.43</v>
+        <v>745.97</v>
       </c>
       <c r="O122">
-        <v>745.46</v>
+        <v>735.16</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.35">
@@ -6877,10 +6877,10 @@
         <v>708.43</v>
       </c>
       <c r="N123">
-        <v>727.11</v>
+        <v>725.98</v>
       </c>
       <c r="O123">
-        <v>737.28</v>
+        <v>721.74</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.35">
@@ -6918,16 +6918,16 @@
         <v>1490.31</v>
       </c>
       <c r="L124">
-        <v>1243.78</v>
+        <v>1196.9000000000001</v>
       </c>
       <c r="M124">
-        <v>1334.23</v>
+        <v>1273.78</v>
       </c>
       <c r="N124">
-        <v>1300.93</v>
+        <v>1228.02</v>
       </c>
       <c r="O124">
-        <v>1259.42</v>
+        <v>1077.6300000000001</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.35">
@@ -6965,16 +6965,16 @@
         <v>1320.48</v>
       </c>
       <c r="L125">
-        <v>1396.76</v>
+        <v>1349.89</v>
       </c>
       <c r="M125">
-        <v>1364.37</v>
+        <v>1304.6199999999999</v>
       </c>
       <c r="N125">
-        <v>1415.68</v>
+        <v>1342.59</v>
       </c>
       <c r="O125">
-        <v>1378.76</v>
+        <v>1193.53</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.35">
@@ -7015,13 +7015,13 @@
         <v>1376.49</v>
       </c>
       <c r="M126">
-        <v>1274.83</v>
+        <v>1218.26</v>
       </c>
       <c r="N126">
-        <v>1107.83</v>
+        <v>1037.3800000000001</v>
       </c>
       <c r="O126">
-        <v>1146.02</v>
+        <v>857.52</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.35">
@@ -7059,16 +7059,16 @@
         <v>1241.43</v>
       </c>
       <c r="L127">
-        <v>1174.1600000000001</v>
+        <v>1127.29</v>
       </c>
       <c r="M127">
-        <v>1249.24</v>
+        <v>1188.71</v>
       </c>
       <c r="N127">
-        <v>1195.3800000000001</v>
+        <v>1126.6600000000001</v>
       </c>
       <c r="O127">
-        <v>1371.13</v>
+        <v>1335.8</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.35">
@@ -7109,13 +7109,13 @@
         <v>750</v>
       </c>
       <c r="M128">
-        <v>749.43</v>
+        <v>749.21</v>
       </c>
       <c r="N128">
-        <v>747.03</v>
+        <v>745.75</v>
       </c>
       <c r="O128">
-        <v>746.55</v>
+        <v>739.19</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.35">
@@ -7153,16 +7153,16 @@
         <v>1047.1199999999999</v>
       </c>
       <c r="L129">
-        <v>1263.75</v>
+        <v>1216.8699999999999</v>
       </c>
       <c r="M129">
-        <v>1160.1500000000001</v>
+        <v>1101.03</v>
       </c>
       <c r="N129">
-        <v>1104.3399999999999</v>
+        <v>1034.52</v>
       </c>
       <c r="O129">
-        <v>1172.6099999999999</v>
+        <v>909.56</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.35">
@@ -7203,13 +7203,13 @@
         <v>1168.0899999999999</v>
       </c>
       <c r="M130">
-        <v>1160.01</v>
+        <v>1102.8399999999999</v>
       </c>
       <c r="N130">
-        <v>1284.3800000000001</v>
+        <v>1213.52</v>
       </c>
       <c r="O130">
-        <v>1309.57</v>
+        <v>1272.92</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.35">
@@ -7253,10 +7253,10 @@
         <v>748.72</v>
       </c>
       <c r="N131">
-        <v>743.92</v>
+        <v>740.79</v>
       </c>
       <c r="O131">
-        <v>746.26</v>
+        <v>739</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.35">
@@ -7297,13 +7297,13 @@
         <v>750</v>
       </c>
       <c r="M132">
-        <v>748.24</v>
+        <v>747.99</v>
       </c>
       <c r="N132">
-        <v>746.85</v>
+        <v>745.82</v>
       </c>
       <c r="O132">
-        <v>746.14</v>
+        <v>738.02</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.35">
@@ -7341,16 +7341,16 @@
         <v>1371.48</v>
       </c>
       <c r="L133">
-        <v>1497.81</v>
+        <v>1450.93</v>
       </c>
       <c r="M133">
-        <v>1368.09</v>
+        <v>1303.3599999999999</v>
       </c>
       <c r="N133">
-        <v>1385.48</v>
+        <v>1314.89</v>
       </c>
       <c r="O133">
-        <v>1457.36</v>
+        <v>1378.71</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.35">
@@ -7391,13 +7391,13 @@
         <v>750</v>
       </c>
       <c r="M134">
-        <v>747.45</v>
+        <v>746.38</v>
       </c>
       <c r="N134">
-        <v>748.17</v>
+        <v>747.29</v>
       </c>
       <c r="O134">
-        <v>748.32</v>
+        <v>744.62</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.35">
@@ -7438,13 +7438,13 @@
         <v>750</v>
       </c>
       <c r="M135">
-        <v>749.13</v>
+        <v>749.05</v>
       </c>
       <c r="N135">
-        <v>749.57</v>
+        <v>749.52</v>
       </c>
       <c r="O135">
-        <v>749.55</v>
+        <v>748.72</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.35">
@@ -7482,16 +7482,16 @@
         <v>1219.5</v>
       </c>
       <c r="L136">
-        <v>1426.9</v>
+        <v>1380.03</v>
       </c>
       <c r="M136">
-        <v>1444.79</v>
+        <v>1426.01</v>
       </c>
       <c r="N136">
-        <v>1415.08</v>
+        <v>1344.26</v>
       </c>
       <c r="O136">
-        <v>1460.9</v>
+        <v>1451.28</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.35">
@@ -7532,13 +7532,13 @@
         <v>750</v>
       </c>
       <c r="M137">
-        <v>749.05</v>
+        <v>748.81</v>
       </c>
       <c r="N137">
-        <v>748.38</v>
+        <v>747.62</v>
       </c>
       <c r="O137">
-        <v>747.93</v>
+        <v>743.54</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.35">
@@ -7582,10 +7582,10 @@
         <v>750</v>
       </c>
       <c r="N138">
-        <v>749.26</v>
+        <v>748.88</v>
       </c>
       <c r="O138">
-        <v>749.63</v>
+        <v>748.88</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.35">
@@ -7623,16 +7623,16 @@
         <v>1125.6600000000001</v>
       </c>
       <c r="L139">
-        <v>1182.79</v>
+        <v>1135.9100000000001</v>
       </c>
       <c r="M139">
-        <v>1272.68</v>
+        <v>1211.54</v>
       </c>
       <c r="N139">
-        <v>1267.07</v>
+        <v>1193.56</v>
       </c>
       <c r="O139">
-        <v>1237.4000000000001</v>
+        <v>1031.4100000000001</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.35">
@@ -7720,13 +7720,13 @@
         <v>750</v>
       </c>
       <c r="M141">
-        <v>811.02</v>
+        <v>810.46</v>
       </c>
       <c r="N141">
-        <v>779.64</v>
+        <v>778.95</v>
       </c>
       <c r="O141">
-        <v>764.13</v>
+        <v>776.65</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.35">
@@ -7770,10 +7770,10 @@
         <v>749.49</v>
       </c>
       <c r="N142">
-        <v>748.82</v>
+        <v>748.3</v>
       </c>
       <c r="O142">
-        <v>749.08</v>
+        <v>747.48</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.35">
@@ -7811,16 +7811,16 @@
         <v>1227.1500000000001</v>
       </c>
       <c r="L143">
-        <v>1166.6300000000001</v>
+        <v>1119.75</v>
       </c>
       <c r="M143">
-        <v>1324.13</v>
+        <v>1266.3599999999999</v>
       </c>
       <c r="N143">
-        <v>1100.27</v>
+        <v>1028.3499999999999</v>
       </c>
       <c r="O143">
-        <v>1219.57</v>
+        <v>997.87</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.35">
@@ -7864,10 +7864,10 @@
         <v>749.88</v>
       </c>
       <c r="N144">
-        <v>749.29</v>
+        <v>749.22</v>
       </c>
       <c r="O144">
-        <v>749.03</v>
+        <v>747.14</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.35">
@@ -7908,13 +7908,13 @@
         <v>1526.59</v>
       </c>
       <c r="M145">
-        <v>1322.3</v>
+        <v>1263.29</v>
       </c>
       <c r="N145">
-        <v>1262.78</v>
+        <v>1189.67</v>
       </c>
       <c r="O145">
-        <v>1446.01</v>
+        <v>1329.03</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.35">
@@ -8002,13 +8002,13 @@
         <v>750</v>
       </c>
       <c r="M147">
-        <v>747.39</v>
+        <v>746.3</v>
       </c>
       <c r="N147">
-        <v>744.88</v>
+        <v>742.18</v>
       </c>
       <c r="O147">
-        <v>744.08</v>
+        <v>729.94</v>
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.35">
@@ -8049,13 +8049,13 @@
         <v>1546.22</v>
       </c>
       <c r="M148">
-        <v>1513.49</v>
+        <v>1504.09</v>
       </c>
       <c r="N148">
-        <v>1548.3</v>
+        <v>1481.03</v>
       </c>
       <c r="O148">
-        <v>1445.73</v>
+        <v>1426.19</v>
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.35">
@@ -8096,13 +8096,13 @@
         <v>1322.03</v>
       </c>
       <c r="M149">
-        <v>1147.43</v>
+        <v>1092.5999999999999</v>
       </c>
       <c r="N149">
-        <v>1348.03</v>
+        <v>1276.75</v>
       </c>
       <c r="O149">
-        <v>1276.69</v>
+        <v>1203.48</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.35">
@@ -8143,13 +8143,13 @@
         <v>1676.11</v>
       </c>
       <c r="M150">
-        <v>1572.49</v>
+        <v>1564.18</v>
       </c>
       <c r="N150">
-        <v>1533.4</v>
+        <v>1517.29</v>
       </c>
       <c r="O150">
-        <v>1669.54</v>
+        <v>1728.27</v>
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.35">
@@ -8190,13 +8190,13 @@
         <v>1611.77</v>
       </c>
       <c r="M151">
-        <v>1527.47</v>
+        <v>1519.17</v>
       </c>
       <c r="N151">
-        <v>1414.01</v>
+        <v>1345.28</v>
       </c>
       <c r="O151">
-        <v>1499.12</v>
+        <v>1461.84</v>
       </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.35">
@@ -8237,13 +8237,13 @@
         <v>1449.97</v>
       </c>
       <c r="M152">
-        <v>1591.41</v>
+        <v>1581.06</v>
       </c>
       <c r="N152">
-        <v>1346.42</v>
+        <v>1277.4000000000001</v>
       </c>
       <c r="O152">
-        <v>1403.12</v>
+        <v>1336.36</v>
       </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.35">
@@ -8284,13 +8284,13 @@
         <v>1093.75</v>
       </c>
       <c r="M153">
-        <v>1273.24</v>
+        <v>1212.08</v>
       </c>
       <c r="N153">
-        <v>1159.68</v>
+        <v>1089.78</v>
       </c>
       <c r="O153">
-        <v>1291.99</v>
+        <v>1144.19</v>
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.35">
@@ -8331,13 +8331,13 @@
         <v>1449.55</v>
       </c>
       <c r="M154">
-        <v>1466.77</v>
+        <v>1414</v>
       </c>
       <c r="N154">
-        <v>1472.18</v>
+        <v>1452.71</v>
       </c>
       <c r="O154">
-        <v>1603.3</v>
+        <v>1601.85</v>
       </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.35">
@@ -8375,16 +8375,16 @@
         <v>1360.26</v>
       </c>
       <c r="L155">
-        <v>1302.7</v>
+        <v>1318.32</v>
       </c>
       <c r="M155">
-        <v>1309.8599999999999</v>
+        <v>1319.72</v>
       </c>
       <c r="N155">
-        <v>1415.1</v>
+        <v>1458.49</v>
       </c>
       <c r="O155">
-        <v>1438.06</v>
+        <v>1497.46</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.35">
@@ -8422,16 +8422,16 @@
         <v>1552.02</v>
       </c>
       <c r="L156">
-        <v>1463.68</v>
+        <v>1416.8</v>
       </c>
       <c r="M156">
-        <v>1432.4</v>
+        <v>1372.96</v>
       </c>
       <c r="N156">
-        <v>1552.13</v>
+        <v>1530.47</v>
       </c>
       <c r="O156">
-        <v>1524.12</v>
+        <v>1535.41</v>
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.35">
@@ -8469,16 +8469,16 @@
         <v>1382.7</v>
       </c>
       <c r="L157">
-        <v>1444.57</v>
+        <v>1397.7</v>
       </c>
       <c r="M157">
-        <v>1479.65</v>
+        <v>1463.42</v>
       </c>
       <c r="N157">
-        <v>1506.42</v>
+        <v>1434.76</v>
       </c>
       <c r="O157">
-        <v>1309.05</v>
+        <v>1051.94</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.35">
@@ -8519,13 +8519,13 @@
         <v>750</v>
       </c>
       <c r="M158">
-        <v>746.94</v>
+        <v>746.98</v>
       </c>
       <c r="N158">
-        <v>746.77</v>
+        <v>745.92</v>
       </c>
       <c r="O158">
-        <v>747.48</v>
+        <v>743.19</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.35">
@@ -8566,13 +8566,13 @@
         <v>750</v>
       </c>
       <c r="M159">
-        <v>749.86</v>
+        <v>749.84</v>
       </c>
       <c r="N159">
-        <v>749.93</v>
+        <v>749.92</v>
       </c>
       <c r="O159">
-        <v>749.18</v>
+        <v>746.35</v>
       </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.35">
@@ -8657,16 +8657,16 @@
         <v>1330.68</v>
       </c>
       <c r="L161">
-        <v>1317.22</v>
+        <v>1270.3399999999999</v>
       </c>
       <c r="M161">
-        <v>1519.73</v>
+        <v>1459.73</v>
       </c>
       <c r="N161">
-        <v>1428.34</v>
+        <v>1356.63</v>
       </c>
       <c r="O161">
-        <v>1415.34</v>
+        <v>1266.6199999999999</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.35">
@@ -8707,13 +8707,13 @@
         <v>750</v>
       </c>
       <c r="M162">
-        <v>805.27</v>
+        <v>803.68</v>
       </c>
       <c r="N162">
-        <v>777.24</v>
+        <v>776.33</v>
       </c>
       <c r="O162">
-        <v>762.41</v>
+        <v>772.22</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.35">
@@ -8754,13 +8754,13 @@
         <v>1183.3399999999999</v>
       </c>
       <c r="M163">
-        <v>1193.57</v>
+        <v>1131.4000000000001</v>
       </c>
       <c r="N163">
-        <v>1190.32</v>
+        <v>1116.23</v>
       </c>
       <c r="O163">
-        <v>1254.76</v>
+        <v>1065.24</v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.35">
@@ -8801,13 +8801,13 @@
         <v>750</v>
       </c>
       <c r="M164">
-        <v>749.55</v>
+        <v>749.36</v>
       </c>
       <c r="N164">
-        <v>749.11</v>
+        <v>748.62</v>
       </c>
       <c r="O164">
-        <v>749.15</v>
+        <v>747.24</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.35">
@@ -8845,16 +8845,16 @@
         <v>1126.68</v>
       </c>
       <c r="L165">
-        <v>1334.68</v>
+        <v>1287.8</v>
       </c>
       <c r="M165">
-        <v>1321.45</v>
+        <v>1262.07</v>
       </c>
       <c r="N165">
-        <v>1320.25</v>
+        <v>1248.17</v>
       </c>
       <c r="O165">
-        <v>1433.21</v>
+        <v>1304.72</v>
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.35">
@@ -8895,13 +8895,13 @@
         <v>750</v>
       </c>
       <c r="M166">
-        <v>748.58</v>
+        <v>748.5</v>
       </c>
       <c r="N166">
-        <v>807.56</v>
+        <v>805.84</v>
       </c>
       <c r="O166">
-        <v>840.08</v>
+        <v>927.17</v>
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.35">
@@ -8948,7 +8948,7 @@
         <v>1351.56</v>
       </c>
       <c r="O167">
-        <v>1394.53</v>
+        <v>1351.56</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.35">
@@ -8989,13 +8989,13 @@
         <v>750</v>
       </c>
       <c r="M168">
-        <v>748.57</v>
+        <v>748.09</v>
       </c>
       <c r="N168">
-        <v>749.25</v>
+        <v>749</v>
       </c>
       <c r="O168">
-        <v>749.38</v>
+        <v>748.14</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.35">
@@ -9080,16 +9080,16 @@
         <v>1347.51</v>
       </c>
       <c r="L170">
-        <v>1327.03</v>
+        <v>1280.1600000000001</v>
       </c>
       <c r="M170">
-        <v>1427</v>
+        <v>1414.33</v>
       </c>
       <c r="N170">
-        <v>1268.76</v>
+        <v>1199.5</v>
       </c>
       <c r="O170">
-        <v>1193.1099999999999</v>
+        <v>955.6</v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.35">
@@ -9130,13 +9130,13 @@
         <v>1457.35</v>
       </c>
       <c r="M171">
-        <v>1246.83</v>
+        <v>1191.02</v>
       </c>
       <c r="N171">
-        <v>1238.58</v>
+        <v>1168.69</v>
       </c>
       <c r="O171">
-        <v>1369.15</v>
+        <v>1308.1300000000001</v>
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.35">
@@ -9221,16 +9221,16 @@
         <v>750</v>
       </c>
       <c r="L173">
-        <v>1096.22</v>
+        <v>1049.3499999999999</v>
       </c>
       <c r="M173">
-        <v>1204.6099999999999</v>
+        <v>1140.9000000000001</v>
       </c>
       <c r="N173">
-        <v>1286.52</v>
+        <v>1260.4100000000001</v>
       </c>
       <c r="O173">
-        <v>1314.64</v>
+        <v>1199.1300000000001</v>
       </c>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.35">
@@ -9268,16 +9268,16 @@
         <v>1320.99</v>
       </c>
       <c r="L174">
-        <v>1315.05</v>
+        <v>1268.18</v>
       </c>
       <c r="M174">
-        <v>1444.59</v>
+        <v>1380.23</v>
       </c>
       <c r="N174">
-        <v>1490.09</v>
+        <v>1419.87</v>
       </c>
       <c r="O174">
-        <v>1415.69</v>
+        <v>1270.96</v>
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.35">
@@ -9318,13 +9318,13 @@
         <v>750</v>
       </c>
       <c r="M175">
-        <v>743.93</v>
+        <v>743.01</v>
       </c>
       <c r="N175">
-        <v>746.2</v>
+        <v>745.31</v>
       </c>
       <c r="O175">
-        <v>745</v>
+        <v>734.69</v>
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.35">
@@ -9365,13 +9365,13 @@
         <v>750</v>
       </c>
       <c r="M176">
-        <v>748.94</v>
+        <v>748.5</v>
       </c>
       <c r="N176">
-        <v>749.15</v>
+        <v>748.74</v>
       </c>
       <c r="O176">
-        <v>749.16</v>
+        <v>747.32</v>
       </c>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.35">
@@ -9415,10 +9415,10 @@
         <v>811.02</v>
       </c>
       <c r="N177">
-        <v>780.22</v>
+        <v>780.06</v>
       </c>
       <c r="O177">
-        <v>765.11</v>
+        <v>780.06</v>
       </c>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.35">
@@ -9456,16 +9456,16 @@
         <v>1197.57</v>
       </c>
       <c r="L178">
-        <v>1168.1199999999999</v>
+        <v>1121.24</v>
       </c>
       <c r="M178">
-        <v>1179.94</v>
+        <v>1115.79</v>
       </c>
       <c r="N178">
-        <v>1142.3599999999999</v>
+        <v>1067.77</v>
       </c>
       <c r="O178">
-        <v>1277.03</v>
+        <v>1111.17</v>
       </c>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.35">
@@ -9506,13 +9506,13 @@
         <v>750</v>
       </c>
       <c r="M179">
-        <v>749.26</v>
+        <v>748.99</v>
       </c>
       <c r="N179">
-        <v>749.29</v>
+        <v>748.97</v>
       </c>
       <c r="O179">
-        <v>749.49</v>
+        <v>748.45</v>
       </c>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.35">
@@ -9553,13 +9553,13 @@
         <v>750</v>
       </c>
       <c r="M180">
-        <v>748.5</v>
+        <v>747.88</v>
       </c>
       <c r="N180">
-        <v>745.77</v>
+        <v>743.65</v>
       </c>
       <c r="O180">
-        <v>746.24</v>
+        <v>739.52</v>
       </c>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.35">
@@ -9600,13 +9600,13 @@
         <v>750</v>
       </c>
       <c r="M181">
-        <v>747.59</v>
+        <v>746.58</v>
       </c>
       <c r="N181">
-        <v>748.05</v>
+        <v>747.1</v>
       </c>
       <c r="O181">
-        <v>749.02</v>
+        <v>747.1</v>
       </c>
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.35">
@@ -9647,13 +9647,13 @@
         <v>1583.47</v>
       </c>
       <c r="M182">
-        <v>1301.98</v>
+        <v>1251.2</v>
       </c>
       <c r="N182">
-        <v>1432.4</v>
+        <v>1411.06</v>
       </c>
       <c r="O182">
-        <v>1451.21</v>
+        <v>1354.67</v>
       </c>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.35">
@@ -9694,13 +9694,13 @@
         <v>750</v>
       </c>
       <c r="M183">
-        <v>749.75</v>
+        <v>749.66</v>
       </c>
       <c r="N183">
-        <v>811.67</v>
+        <v>811.22</v>
       </c>
       <c r="O183">
-        <v>841.1</v>
+        <v>928.68</v>
       </c>
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.35">
@@ -9738,16 +9738,16 @@
         <v>1406.67</v>
       </c>
       <c r="L184">
-        <v>1307.8499999999999</v>
+        <v>1245.3499999999999</v>
       </c>
       <c r="M184">
-        <v>1391.71</v>
+        <v>1264.45</v>
       </c>
       <c r="N184">
-        <v>1400.29</v>
+        <v>1263.3800000000001</v>
       </c>
       <c r="O184">
-        <v>1439.53</v>
+        <v>1329.76</v>
       </c>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.35">
@@ -9785,16 +9785,16 @@
         <v>1264.3800000000001</v>
       </c>
       <c r="L185">
-        <v>1189.2</v>
+        <v>1142.33</v>
       </c>
       <c r="M185">
-        <v>1182.79</v>
+        <v>1119.01</v>
       </c>
       <c r="N185">
-        <v>1322.4</v>
+        <v>1249.8499999999999</v>
       </c>
       <c r="O185">
-        <v>1263.96</v>
+        <v>1091.6400000000001</v>
       </c>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.35">
@@ -9838,10 +9838,10 @@
         <v>749.32</v>
       </c>
       <c r="N186">
-        <v>749.34</v>
+        <v>749.18</v>
       </c>
       <c r="O186">
-        <v>748.73</v>
+        <v>746.04</v>
       </c>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.35">
@@ -9882,13 +9882,13 @@
         <v>1503.62</v>
       </c>
       <c r="M187">
-        <v>1269.27</v>
+        <v>1219.04</v>
       </c>
       <c r="N187">
-        <v>1294.53</v>
+        <v>1227.98</v>
       </c>
       <c r="O187">
-        <v>1370.57</v>
+        <v>1192.0899999999999</v>
       </c>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.35">
@@ -9929,13 +9929,13 @@
         <v>714.11</v>
       </c>
       <c r="M188">
-        <v>731.86</v>
+        <v>731.77</v>
       </c>
       <c r="N188">
-        <v>736.82</v>
+        <v>734.39</v>
       </c>
       <c r="O188">
-        <v>743.13</v>
+        <v>733.72</v>
       </c>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.35">
@@ -9979,10 +9979,10 @@
         <v>749.87</v>
       </c>
       <c r="N189">
-        <v>738.61</v>
+        <v>733.47</v>
       </c>
       <c r="O189">
-        <v>740.28</v>
+        <v>720.4</v>
       </c>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.35">
@@ -10020,16 +10020,16 @@
         <v>1351.59</v>
       </c>
       <c r="L190">
-        <v>1234.8499999999999</v>
+        <v>1187.98</v>
       </c>
       <c r="M190">
-        <v>1343.87</v>
+        <v>1278.6600000000001</v>
       </c>
       <c r="N190">
-        <v>1384.61</v>
+        <v>1312.94</v>
       </c>
       <c r="O190">
-        <v>1387.51</v>
+        <v>1209.6400000000001</v>
       </c>
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.35">
@@ -10067,16 +10067,16 @@
         <v>1369.44</v>
       </c>
       <c r="L191">
-        <v>1174.4000000000001</v>
+        <v>1127.53</v>
       </c>
       <c r="M191">
-        <v>1167.4000000000001</v>
+        <v>1104.31</v>
       </c>
       <c r="N191">
-        <v>1202.74</v>
+        <v>1128.77</v>
       </c>
       <c r="O191">
-        <v>1208.83</v>
+        <v>974.69</v>
       </c>
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.35">
@@ -10114,16 +10114,16 @@
         <v>1461.75</v>
       </c>
       <c r="L192">
-        <v>1360.8</v>
+        <v>1313.92</v>
       </c>
       <c r="M192">
-        <v>1444.43</v>
+        <v>1380.91</v>
       </c>
       <c r="N192">
-        <v>1534.89</v>
+        <v>1513.18</v>
       </c>
       <c r="O192">
-        <v>1434.32</v>
+        <v>1406.34</v>
       </c>
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.35">
@@ -10164,13 +10164,13 @@
         <v>750</v>
       </c>
       <c r="M193">
-        <v>749.8</v>
+        <v>749.75</v>
       </c>
       <c r="N193">
-        <v>748.44</v>
+        <v>747.85</v>
       </c>
       <c r="O193">
-        <v>749.08</v>
+        <v>747.38</v>
       </c>
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.35">
@@ -10211,13 +10211,13 @@
         <v>750</v>
       </c>
       <c r="M194">
-        <v>749.02</v>
+        <v>748.6</v>
       </c>
       <c r="N194">
-        <v>748.49</v>
+        <v>747.66</v>
       </c>
       <c r="O194">
-        <v>744.14</v>
+        <v>730.93</v>
       </c>
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.35">
@@ -10258,13 +10258,13 @@
         <v>750</v>
       </c>
       <c r="M195">
-        <v>747.94</v>
+        <v>747.07</v>
       </c>
       <c r="N195">
-        <v>748.06</v>
+        <v>747.33</v>
       </c>
       <c r="O195">
-        <v>748.99</v>
+        <v>747.24</v>
       </c>
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.35">
@@ -10305,13 +10305,13 @@
         <v>1467.96</v>
       </c>
       <c r="M196">
-        <v>1401.03</v>
+        <v>1342.78</v>
       </c>
       <c r="N196">
-        <v>1521.06</v>
+        <v>1452.75</v>
       </c>
       <c r="O196">
-        <v>1615.04</v>
+        <v>1604.85</v>
       </c>
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.35">
@@ -10352,13 +10352,13 @@
         <v>1631.4</v>
       </c>
       <c r="M197">
-        <v>1484.87</v>
+        <v>1426.26</v>
       </c>
       <c r="N197">
-        <v>1403.39</v>
+        <v>1330.29</v>
       </c>
       <c r="O197">
-        <v>1462.09</v>
+        <v>1363.63</v>
       </c>
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.35">
@@ -10405,7 +10405,7 @@
         <v>750</v>
       </c>
       <c r="O198">
-        <v>748.51</v>
+        <v>744.97</v>
       </c>
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.35">
@@ -10443,16 +10443,16 @@
         <v>1359.75</v>
       </c>
       <c r="L199">
-        <v>1472.18</v>
+        <v>1425.31</v>
       </c>
       <c r="M199">
-        <v>1388.21</v>
+        <v>1328.08</v>
       </c>
       <c r="N199">
-        <v>1591.24</v>
+        <v>1571.03</v>
       </c>
       <c r="O199">
-        <v>1383.98</v>
+        <v>1209.6600000000001</v>
       </c>
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.35">
@@ -10493,13 +10493,13 @@
         <v>750</v>
       </c>
       <c r="M200">
-        <v>743.47</v>
+        <v>742.22</v>
       </c>
       <c r="N200">
-        <v>744.27</v>
+        <v>742.1</v>
       </c>
       <c r="O200">
-        <v>744.94</v>
+        <v>734.68</v>
       </c>
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.35">
@@ -10537,16 +10537,16 @@
         <v>750</v>
       </c>
       <c r="L201">
-        <v>1108.22</v>
+        <v>1061.3499999999999</v>
       </c>
       <c r="M201">
-        <v>1218.77</v>
+        <v>1154.3900000000001</v>
       </c>
       <c r="N201">
-        <v>1217.8900000000001</v>
+        <v>1145.58</v>
       </c>
       <c r="O201">
-        <v>1333.13</v>
+        <v>1229.75</v>
       </c>
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.35">
@@ -10584,16 +10584,16 @@
         <v>1279.68</v>
       </c>
       <c r="L202">
-        <v>1388.24</v>
+        <v>1341.36</v>
       </c>
       <c r="M202">
-        <v>1457.14</v>
+        <v>1396.17</v>
       </c>
       <c r="N202">
-        <v>1513.81</v>
+        <v>1445.67</v>
       </c>
       <c r="O202">
-        <v>1468.83</v>
+        <v>1376.54</v>
       </c>
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.35">
@@ -10631,16 +10631,16 @@
         <v>967.56</v>
       </c>
       <c r="L203">
-        <v>1113.02</v>
+        <v>1066.1400000000001</v>
       </c>
       <c r="M203">
-        <v>1240.05</v>
+        <v>1178.1600000000001</v>
       </c>
       <c r="N203">
-        <v>1215.06</v>
+        <v>1140.58</v>
       </c>
       <c r="O203">
-        <v>1178.3900000000001</v>
+        <v>923.3</v>
       </c>
     </row>
     <row r="204" spans="1:15" x14ac:dyDescent="0.35">
@@ -10678,16 +10678,16 @@
         <v>750</v>
       </c>
       <c r="L204">
-        <v>1255.1500000000001</v>
+        <v>1208.28</v>
       </c>
       <c r="M204">
-        <v>1351.67</v>
+        <v>1336.57</v>
       </c>
       <c r="N204">
-        <v>1360.16</v>
+        <v>1336.01</v>
       </c>
       <c r="O204">
-        <v>1347.03</v>
+        <v>1352.64</v>
       </c>
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.35">
@@ -10728,13 +10728,13 @@
         <v>1297.55</v>
       </c>
       <c r="M205">
-        <v>1267.8800000000001</v>
+        <v>1210.6199999999999</v>
       </c>
       <c r="N205">
-        <v>1327.61</v>
+        <v>1255.81</v>
       </c>
       <c r="O205">
-        <v>1454.31</v>
+        <v>1403.88</v>
       </c>
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.35">
@@ -10775,13 +10775,13 @@
         <v>750</v>
       </c>
       <c r="M206">
-        <v>749.71</v>
+        <v>749.62</v>
       </c>
       <c r="N206">
-        <v>748.25</v>
+        <v>747.39</v>
       </c>
       <c r="O206">
-        <v>748.8</v>
+        <v>746.29</v>
       </c>
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.35">
@@ -10819,16 +10819,16 @@
         <v>1147.08</v>
       </c>
       <c r="L207">
-        <v>1193.3900000000001</v>
+        <v>1146.51</v>
       </c>
       <c r="M207">
-        <v>1253.3699999999999</v>
+        <v>1191.4100000000001</v>
       </c>
       <c r="N207">
-        <v>1464.17</v>
+        <v>1438.89</v>
       </c>
       <c r="O207">
-        <v>1436.94</v>
+        <v>1475.92</v>
       </c>
     </row>
     <row r="208" spans="1:15" x14ac:dyDescent="0.35">
@@ -10866,16 +10866,16 @@
         <v>1275.5999999999999</v>
       </c>
       <c r="L208">
-        <v>1324.5</v>
+        <v>1277.6300000000001</v>
       </c>
       <c r="M208">
-        <v>1226.18</v>
+        <v>1163.28</v>
       </c>
       <c r="N208">
-        <v>1480.05</v>
+        <v>1454.11</v>
       </c>
       <c r="O208">
-        <v>1477.49</v>
+        <v>1463.55</v>
       </c>
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.35">
@@ -10916,13 +10916,13 @@
         <v>1343.44</v>
       </c>
       <c r="M209">
-        <v>1377.12</v>
+        <v>1315.74</v>
       </c>
       <c r="N209">
-        <v>1296.5999999999999</v>
+        <v>1221.5999999999999</v>
       </c>
       <c r="O209">
-        <v>1176.23</v>
+        <v>906.03</v>
       </c>
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.35">
@@ -10960,16 +10960,16 @@
         <v>1342.41</v>
       </c>
       <c r="L210">
-        <v>1438.09</v>
+        <v>1391.22</v>
       </c>
       <c r="M210">
-        <v>1457.39</v>
+        <v>1405.22</v>
       </c>
       <c r="N210">
-        <v>1431.86</v>
+        <v>1362.99</v>
       </c>
       <c r="O210">
-        <v>1406.41</v>
+        <v>1265.03</v>
       </c>
     </row>
     <row r="211" spans="1:15" x14ac:dyDescent="0.35">
@@ -11010,13 +11010,13 @@
         <v>1518.22</v>
       </c>
       <c r="M211">
-        <v>1557.71</v>
+        <v>1505.28</v>
       </c>
       <c r="N211">
-        <v>1500.92</v>
+        <v>1433.47</v>
       </c>
       <c r="O211">
-        <v>1426.15</v>
+        <v>1400.66</v>
       </c>
     </row>
     <row r="212" spans="1:15" x14ac:dyDescent="0.35">
@@ -11054,16 +11054,16 @@
         <v>1316.91</v>
       </c>
       <c r="L212">
-        <v>1228.17</v>
+        <v>1181.29</v>
       </c>
       <c r="M212">
-        <v>1369.67</v>
+        <v>1361.05</v>
       </c>
       <c r="N212">
-        <v>1243.17</v>
+        <v>1173.3699999999999</v>
       </c>
       <c r="O212">
-        <v>1292.3699999999999</v>
+        <v>1153.3</v>
       </c>
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.35">
@@ -11101,16 +11101,16 @@
         <v>1240.92</v>
       </c>
       <c r="L213">
-        <v>1233.6099999999999</v>
+        <v>1186.73</v>
       </c>
       <c r="M213">
-        <v>1254.21</v>
+        <v>1191.01</v>
       </c>
       <c r="N213">
-        <v>1410.1</v>
+        <v>1339.8</v>
       </c>
       <c r="O213">
-        <v>1298.8900000000001</v>
+        <v>1032.24</v>
       </c>
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.35">
@@ -11151,13 +11151,13 @@
         <v>750</v>
       </c>
       <c r="M214">
-        <v>749.9</v>
+        <v>749.87</v>
       </c>
       <c r="N214">
-        <v>748.26</v>
+        <v>747.64</v>
       </c>
       <c r="O214">
-        <v>748.83</v>
+        <v>746.59</v>
       </c>
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.35">
@@ -11195,16 +11195,16 @@
         <v>1465.83</v>
       </c>
       <c r="L215">
-        <v>1384.1</v>
+        <v>1337.22</v>
       </c>
       <c r="M215">
-        <v>1363.8</v>
+        <v>1302.1199999999999</v>
       </c>
       <c r="N215">
-        <v>1303.32</v>
+        <v>1228.1099999999999</v>
       </c>
       <c r="O215">
-        <v>1329.69</v>
+        <v>1096.8</v>
       </c>
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.35">
@@ -11248,10 +11248,10 @@
         <v>749.15</v>
       </c>
       <c r="N216">
-        <v>749.18</v>
+        <v>749.12</v>
       </c>
       <c r="O216">
-        <v>749.03</v>
+        <v>747.22</v>
       </c>
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.35">
@@ -11289,16 +11289,16 @@
         <v>1464.81</v>
       </c>
       <c r="L217">
-        <v>1404.92</v>
+        <v>1358.05</v>
       </c>
       <c r="M217">
-        <v>1350.65</v>
+        <v>1288.4100000000001</v>
       </c>
       <c r="N217">
-        <v>1325.38</v>
+        <v>1251.56</v>
       </c>
       <c r="O217">
-        <v>1470.24</v>
+        <v>1374.12</v>
       </c>
     </row>
     <row r="218" spans="1:15" x14ac:dyDescent="0.35">
@@ -11339,13 +11339,13 @@
         <v>750</v>
       </c>
       <c r="M218">
-        <v>746.64</v>
+        <v>745.41</v>
       </c>
       <c r="N218">
-        <v>747.6</v>
+        <v>746.57</v>
       </c>
       <c r="O218">
-        <v>747.05</v>
+        <v>740.68</v>
       </c>
     </row>
     <row r="219" spans="1:15" x14ac:dyDescent="0.35">
@@ -11383,16 +11383,16 @@
         <v>1371.48</v>
       </c>
       <c r="L219">
-        <v>1350.63</v>
+        <v>1303.76</v>
       </c>
       <c r="M219">
-        <v>1430.11</v>
+        <v>1413.21</v>
       </c>
       <c r="N219">
-        <v>1448.01</v>
+        <v>1376.65</v>
       </c>
       <c r="O219">
-        <v>1359.38</v>
+        <v>1153.99</v>
       </c>
     </row>
     <row r="220" spans="1:15" x14ac:dyDescent="0.35">
@@ -11433,13 +11433,13 @@
         <v>1497.14</v>
       </c>
       <c r="M220">
-        <v>1327.02</v>
+        <v>1275.21</v>
       </c>
       <c r="N220">
-        <v>1570.71</v>
+        <v>1550.13</v>
       </c>
       <c r="O220">
-        <v>1646.83</v>
+        <v>1689.14</v>
       </c>
     </row>
     <row r="221" spans="1:15" x14ac:dyDescent="0.35">
@@ -11477,16 +11477,16 @@
         <v>1399.02</v>
       </c>
       <c r="L221">
-        <v>1314.68</v>
+        <v>1377.18</v>
       </c>
       <c r="M221">
-        <v>1371.21</v>
+        <v>1382.51</v>
       </c>
       <c r="N221">
-        <v>1342.36</v>
+        <v>1338.67</v>
       </c>
       <c r="O221">
-        <v>1219.04</v>
+        <v>1016.5</v>
       </c>
     </row>
     <row r="222" spans="1:15" x14ac:dyDescent="0.35">
@@ -11530,10 +11530,10 @@
         <v>749.8</v>
       </c>
       <c r="N222">
-        <v>811.95</v>
+        <v>811.91</v>
       </c>
       <c r="O222">
-        <v>780.72</v>
+        <v>811.04</v>
       </c>
     </row>
     <row r="223" spans="1:15" x14ac:dyDescent="0.35">
@@ -11571,16 +11571,16 @@
         <v>1394.94</v>
       </c>
       <c r="L223">
-        <v>1479.95</v>
+        <v>1433.07</v>
       </c>
       <c r="M223">
-        <v>1414.53</v>
+        <v>1355.47</v>
       </c>
       <c r="N223">
-        <v>1430.03</v>
+        <v>1360.69</v>
       </c>
       <c r="O223">
-        <v>1434.84</v>
+        <v>1306.05</v>
       </c>
     </row>
     <row r="224" spans="1:15" x14ac:dyDescent="0.35">
@@ -11624,10 +11624,10 @@
         <v>749.31</v>
       </c>
       <c r="N224">
-        <v>748.24</v>
+        <v>747.5</v>
       </c>
       <c r="O224">
-        <v>748.82</v>
+        <v>746.47</v>
       </c>
     </row>
     <row r="225" spans="1:15" x14ac:dyDescent="0.35">
@@ -11671,10 +11671,10 @@
         <v>749.86</v>
       </c>
       <c r="N225">
-        <v>749.73</v>
+        <v>749.62</v>
       </c>
       <c r="O225">
-        <v>745.91</v>
+        <v>736.37</v>
       </c>
     </row>
     <row r="226" spans="1:15" x14ac:dyDescent="0.35">
@@ -11712,16 +11712,16 @@
         <v>1318.95</v>
       </c>
       <c r="L226">
-        <v>1214.33</v>
+        <v>1167.45</v>
       </c>
       <c r="M226">
-        <v>1404.01</v>
+        <v>1342.53</v>
       </c>
       <c r="N226">
-        <v>1360.12</v>
+        <v>1285.97</v>
       </c>
       <c r="O226">
-        <v>1279.49</v>
+        <v>1121.6500000000001</v>
       </c>
     </row>
     <row r="227" spans="1:15" x14ac:dyDescent="0.35">
@@ -11762,13 +11762,13 @@
         <v>1268.07</v>
       </c>
       <c r="M227">
-        <v>1329.23</v>
+        <v>1272.8</v>
       </c>
       <c r="N227">
-        <v>1247.8699999999999</v>
+        <v>1177.0899999999999</v>
       </c>
       <c r="O227">
-        <v>1307.6400000000001</v>
+        <v>1173.6400000000001</v>
       </c>
     </row>
     <row r="228" spans="1:15" x14ac:dyDescent="0.35">
@@ -11809,13 +11809,13 @@
         <v>750</v>
       </c>
       <c r="M228">
-        <v>749.43</v>
+        <v>749.19</v>
       </c>
       <c r="N228">
-        <v>808.59</v>
+        <v>806.47</v>
       </c>
       <c r="O228">
-        <v>773.06</v>
+        <v>787.43</v>
       </c>
     </row>
     <row r="229" spans="1:15" x14ac:dyDescent="0.35">
@@ -11856,13 +11856,13 @@
         <v>1441.45</v>
       </c>
       <c r="M229">
-        <v>1505.66</v>
+        <v>1448.97</v>
       </c>
       <c r="N229">
-        <v>1438.31</v>
+        <v>1366.99</v>
       </c>
       <c r="O229">
-        <v>1365.41</v>
+        <v>1169.3399999999999</v>
       </c>
     </row>
     <row r="230" spans="1:15" x14ac:dyDescent="0.35">
@@ -11903,13 +11903,13 @@
         <v>750</v>
       </c>
       <c r="M230">
-        <v>749.37</v>
+        <v>749.17</v>
       </c>
       <c r="N230">
-        <v>748.84</v>
+        <v>748.23</v>
       </c>
       <c r="O230">
-        <v>749.2</v>
+        <v>747.47</v>
       </c>
     </row>
     <row r="231" spans="1:15" x14ac:dyDescent="0.35">
@@ -11947,16 +11947,16 @@
         <v>1298.55</v>
       </c>
       <c r="L231">
-        <v>1250.4100000000001</v>
+        <v>1203.54</v>
       </c>
       <c r="M231">
-        <v>1270.04</v>
+        <v>1212.3699999999999</v>
       </c>
       <c r="N231">
-        <v>1263.49</v>
+        <v>1195.02</v>
       </c>
       <c r="O231">
-        <v>1307.76</v>
+        <v>1180.22</v>
       </c>
     </row>
     <row r="232" spans="1:15" x14ac:dyDescent="0.35">
@@ -11997,13 +11997,13 @@
         <v>750</v>
       </c>
       <c r="M232">
-        <v>734.72</v>
+        <v>732.9</v>
       </c>
       <c r="N232">
-        <v>742.36</v>
+        <v>741.45</v>
       </c>
       <c r="O232">
-        <v>746.18</v>
+        <v>741.45</v>
       </c>
     </row>
     <row r="233" spans="1:15" x14ac:dyDescent="0.35">
@@ -12044,13 +12044,13 @@
         <v>750</v>
       </c>
       <c r="M233">
-        <v>749.72</v>
+        <v>749.62</v>
       </c>
       <c r="N233">
-        <v>749.7</v>
+        <v>749.61</v>
       </c>
       <c r="O233">
-        <v>749.71</v>
+        <v>749.26</v>
       </c>
     </row>
   </sheetData>

--- a/Input Data/Update Elo/Elo By Year.xlsx
+++ b/Input Data/Update Elo/Elo By Year.xlsx
@@ -585,7 +585,7 @@
         <v>1344.69</v>
       </c>
       <c r="O3" t="n">
-        <v>1106</v>
+        <v>1086.29</v>
       </c>
     </row>
     <row r="4">
@@ -634,7 +634,7 @@
         <v>1063.75</v>
       </c>
       <c r="O4" t="n">
-        <v>785.66</v>
+        <v>778.14</v>
       </c>
     </row>
     <row r="5">
@@ -683,7 +683,7 @@
         <v>1581.24</v>
       </c>
       <c r="O5" t="n">
-        <v>1676.62</v>
+        <v>1682.34</v>
       </c>
     </row>
     <row r="6">
@@ -830,7 +830,7 @@
         <v>1269.23</v>
       </c>
       <c r="O8" t="n">
-        <v>1045.16</v>
+        <v>996.08</v>
       </c>
     </row>
     <row r="9">
@@ -977,7 +977,7 @@
         <v>1175.66</v>
       </c>
       <c r="O11" t="n">
-        <v>1375.57</v>
+        <v>1383.28</v>
       </c>
     </row>
     <row r="12">
@@ -1026,7 +1026,7 @@
         <v>1320.66</v>
       </c>
       <c r="O12" t="n">
-        <v>1567.31</v>
+        <v>1578.51</v>
       </c>
     </row>
     <row r="13">
@@ -1075,7 +1075,7 @@
         <v>1252.01</v>
       </c>
       <c r="O13" t="n">
-        <v>1235.15</v>
+        <v>1218.36</v>
       </c>
     </row>
     <row r="14">
@@ -1124,7 +1124,7 @@
         <v>1395.09</v>
       </c>
       <c r="O14" t="n">
-        <v>1197.86</v>
+        <v>1183.95</v>
       </c>
     </row>
     <row r="15">
@@ -1173,7 +1173,7 @@
         <v>1116.09</v>
       </c>
       <c r="O15" t="n">
-        <v>1218.89</v>
+        <v>1086.8</v>
       </c>
     </row>
     <row r="16">
@@ -1320,7 +1320,7 @@
         <v>1343.26</v>
       </c>
       <c r="O18" t="n">
-        <v>1250.88</v>
+        <v>1245.16</v>
       </c>
     </row>
     <row r="19">
@@ -1418,7 +1418,7 @@
         <v>1160.03</v>
       </c>
       <c r="O20" t="n">
-        <v>1028.19</v>
+        <v>1016.08</v>
       </c>
     </row>
     <row r="21">
@@ -1467,7 +1467,7 @@
         <v>1333.97</v>
       </c>
       <c r="O21" t="n">
-        <v>1062.96</v>
+        <v>1045.29</v>
       </c>
     </row>
     <row r="22">
@@ -1565,7 +1565,7 @@
         <v>1282.14</v>
       </c>
       <c r="O23" t="n">
-        <v>1294.33</v>
+        <v>1314.03</v>
       </c>
     </row>
     <row r="24">
@@ -1614,7 +1614,7 @@
         <v>1264.52</v>
       </c>
       <c r="O24" t="n">
-        <v>1145.48</v>
+        <v>1082.64</v>
       </c>
     </row>
     <row r="25">
@@ -1712,7 +1712,7 @@
         <v>1387.87</v>
       </c>
       <c r="O26" t="n">
-        <v>1149.55</v>
+        <v>1133.68</v>
       </c>
     </row>
     <row r="27">
@@ -1810,7 +1810,7 @@
         <v>1194.72</v>
       </c>
       <c r="O28" t="n">
-        <v>1013.13</v>
+        <v>902.71</v>
       </c>
     </row>
     <row r="29">
@@ -1908,7 +1908,7 @@
         <v>1270.65</v>
       </c>
       <c r="O30" t="n">
-        <v>1265.07</v>
+        <v>1354.34</v>
       </c>
     </row>
     <row r="31">
@@ -2104,7 +2104,7 @@
         <v>1313.66</v>
       </c>
       <c r="O34" t="n">
-        <v>1254.97</v>
+        <v>1283.92</v>
       </c>
     </row>
     <row r="35">
@@ -2153,7 +2153,7 @@
         <v>1115.61</v>
       </c>
       <c r="O35" t="n">
-        <v>1019.98</v>
+        <v>1008.44</v>
       </c>
     </row>
     <row r="36">
@@ -2251,7 +2251,7 @@
         <v>1121.8</v>
       </c>
       <c r="O37" t="n">
-        <v>930.22</v>
+        <v>894.88</v>
       </c>
     </row>
     <row r="38">
@@ -2349,7 +2349,7 @@
         <v>1354.16</v>
       </c>
       <c r="O39" t="n">
-        <v>1102.02</v>
+        <v>1070.6</v>
       </c>
     </row>
     <row r="40">
@@ -2447,7 +2447,7 @@
         <v>1403.52</v>
       </c>
       <c r="O41" t="n">
-        <v>1469.68</v>
+        <v>1509.14</v>
       </c>
     </row>
     <row r="42">
@@ -2496,7 +2496,7 @@
         <v>1206.05</v>
       </c>
       <c r="O42" t="n">
-        <v>1286.15</v>
+        <v>1225.43</v>
       </c>
     </row>
     <row r="43">
@@ -2594,7 +2594,7 @@
         <v>1233.8</v>
       </c>
       <c r="O44" t="n">
-        <v>1033.65</v>
+        <v>1026.07</v>
       </c>
     </row>
     <row r="45">
@@ -2643,7 +2643,7 @@
         <v>1130.5</v>
       </c>
       <c r="O45" t="n">
-        <v>1138.07</v>
+        <v>1058.49</v>
       </c>
     </row>
     <row r="46">
@@ -2692,7 +2692,7 @@
         <v>1194.48</v>
       </c>
       <c r="O46" t="n">
-        <v>988.96</v>
+        <v>1059.44</v>
       </c>
     </row>
     <row r="47">
@@ -2839,7 +2839,7 @@
         <v>1398.03</v>
       </c>
       <c r="O49" t="n">
-        <v>1193.3</v>
+        <v>1238.38</v>
       </c>
     </row>
     <row r="50">
@@ -2937,7 +2937,7 @@
         <v>1289.52</v>
       </c>
       <c r="O51" t="n">
-        <v>970.62</v>
+        <v>878.3200000000001</v>
       </c>
     </row>
     <row r="52">
@@ -3084,7 +3084,7 @@
         <v>1256.75</v>
       </c>
       <c r="O54" t="n">
-        <v>996.29</v>
+        <v>1069.91</v>
       </c>
     </row>
     <row r="55">
@@ -3231,7 +3231,7 @@
         <v>1332.19</v>
       </c>
       <c r="O57" t="n">
-        <v>1237.96</v>
+        <v>1230.59</v>
       </c>
     </row>
     <row r="58">
@@ -3329,7 +3329,7 @@
         <v>1136.15</v>
       </c>
       <c r="O59" t="n">
-        <v>920.86</v>
+        <v>902.91</v>
       </c>
     </row>
     <row r="60">
@@ -3378,7 +3378,7 @@
         <v>1066.3</v>
       </c>
       <c r="O60" t="n">
-        <v>836.17</v>
+        <v>813.87</v>
       </c>
     </row>
     <row r="61">
@@ -3427,7 +3427,7 @@
         <v>1457.09</v>
       </c>
       <c r="O61" t="n">
-        <v>1628.88</v>
+        <v>1636.25</v>
       </c>
     </row>
     <row r="62">
@@ -3525,7 +3525,7 @@
         <v>1366.3</v>
       </c>
       <c r="O63" t="n">
-        <v>1183.65</v>
+        <v>1027.84</v>
       </c>
     </row>
     <row r="64">
@@ -3672,7 +3672,7 @@
         <v>1715.27</v>
       </c>
       <c r="O66" t="n">
-        <v>1785.88</v>
+        <v>1789.55</v>
       </c>
     </row>
     <row r="67">
@@ -3721,7 +3721,7 @@
         <v>1163.53</v>
       </c>
       <c r="O67" t="n">
-        <v>1050.99</v>
+        <v>1039.42</v>
       </c>
     </row>
     <row r="68">
@@ -3770,7 +3770,7 @@
         <v>1186.86</v>
       </c>
       <c r="O68" t="n">
-        <v>1096.17</v>
+        <v>1064.4</v>
       </c>
     </row>
     <row r="69">
@@ -3819,7 +3819,7 @@
         <v>1303.52</v>
       </c>
       <c r="O69" t="n">
-        <v>1299.93</v>
+        <v>1296.26</v>
       </c>
     </row>
     <row r="70">
@@ -3966,7 +3966,7 @@
         <v>1106.76</v>
       </c>
       <c r="O72" t="n">
-        <v>1034.98</v>
+        <v>1114.56</v>
       </c>
     </row>
     <row r="73">
@@ -4064,7 +4064,7 @@
         <v>1356.45</v>
       </c>
       <c r="O74" t="n">
-        <v>1128.71</v>
+        <v>1085.29</v>
       </c>
     </row>
     <row r="75">
@@ -4309,7 +4309,7 @@
         <v>1347.42</v>
       </c>
       <c r="O79" t="n">
-        <v>1310.34</v>
+        <v>1254.98</v>
       </c>
     </row>
     <row r="80">
@@ -4456,7 +4456,7 @@
         <v>1281.63</v>
       </c>
       <c r="O82" t="n">
-        <v>1146.02</v>
+        <v>1108.31</v>
       </c>
     </row>
     <row r="83">
@@ -4554,7 +4554,7 @@
         <v>1436.62</v>
       </c>
       <c r="O84" t="n">
-        <v>1519.07</v>
+        <v>1526.67</v>
       </c>
     </row>
     <row r="85">
@@ -4603,7 +4603,7 @@
         <v>1304.4</v>
       </c>
       <c r="O85" t="n">
-        <v>1367.65</v>
+        <v>1467.07</v>
       </c>
     </row>
     <row r="86">
@@ -4701,7 +4701,7 @@
         <v>1333.24</v>
       </c>
       <c r="O87" t="n">
-        <v>1202.81</v>
+        <v>1179.97</v>
       </c>
     </row>
     <row r="88">
@@ -4750,7 +4750,7 @@
         <v>1296.83</v>
       </c>
       <c r="O88" t="n">
-        <v>1412.05</v>
+        <v>1452.54</v>
       </c>
     </row>
     <row r="89">
@@ -4799,7 +4799,7 @@
         <v>1299.77</v>
       </c>
       <c r="O89" t="n">
-        <v>1340.87</v>
+        <v>1361.81</v>
       </c>
     </row>
     <row r="90">
@@ -4848,7 +4848,7 @@
         <v>1486.91</v>
       </c>
       <c r="O90" t="n">
-        <v>1514.54</v>
+        <v>1415.12</v>
       </c>
     </row>
     <row r="91">
@@ -4897,7 +4897,7 @@
         <v>1181.87</v>
       </c>
       <c r="O91" t="n">
-        <v>673.25</v>
+        <v>667.23</v>
       </c>
     </row>
     <row r="92">
@@ -4946,7 +4946,7 @@
         <v>1365.74</v>
       </c>
       <c r="O92" t="n">
-        <v>1255.61</v>
+        <v>1368.65</v>
       </c>
     </row>
     <row r="93">
@@ -5093,7 +5093,7 @@
         <v>1167.09</v>
       </c>
       <c r="O95" t="n">
-        <v>1427.72</v>
+        <v>1430.34</v>
       </c>
     </row>
     <row r="96">
@@ -5142,7 +5142,7 @@
         <v>1230.32</v>
       </c>
       <c r="O96" t="n">
-        <v>1038.87</v>
+        <v>1059.23</v>
       </c>
     </row>
     <row r="97">
@@ -5191,7 +5191,7 @@
         <v>1447.03</v>
       </c>
       <c r="O97" t="n">
-        <v>1496.05</v>
+        <v>1524.09</v>
       </c>
     </row>
     <row r="98">
@@ -5289,7 +5289,7 @@
         <v>1176.72</v>
       </c>
       <c r="O99" t="n">
-        <v>855.62</v>
+        <v>825.0700000000001</v>
       </c>
     </row>
     <row r="100">
@@ -5338,7 +5338,7 @@
         <v>1408.54</v>
       </c>
       <c r="O100" t="n">
-        <v>1518.22</v>
+        <v>1405.18</v>
       </c>
     </row>
     <row r="101">
@@ -5436,7 +5436,7 @@
         <v>1305.44</v>
       </c>
       <c r="O102" t="n">
-        <v>1075.71</v>
+        <v>1163.77</v>
       </c>
     </row>
     <row r="103">
@@ -5485,7 +5485,7 @@
         <v>1385.54</v>
       </c>
       <c r="O103" t="n">
-        <v>1297.49</v>
+        <v>1363.56</v>
       </c>
     </row>
     <row r="104">
@@ -5534,7 +5534,7 @@
         <v>1023.71</v>
       </c>
       <c r="O104" t="n">
-        <v>992.4299999999999</v>
+        <v>886.7</v>
       </c>
     </row>
     <row r="105">
@@ -5632,7 +5632,7 @@
         <v>1244.63</v>
       </c>
       <c r="O106" t="n">
-        <v>1281.69</v>
+        <v>1291.04</v>
       </c>
     </row>
     <row r="107">
@@ -5730,7 +5730,7 @@
         <v>1286.29</v>
       </c>
       <c r="O108" t="n">
-        <v>1264.74</v>
+        <v>1306.63</v>
       </c>
     </row>
     <row r="109">
@@ -5779,7 +5779,7 @@
         <v>1186.13</v>
       </c>
       <c r="O109" t="n">
-        <v>1349.02</v>
+        <v>1361.13</v>
       </c>
     </row>
     <row r="110">
@@ -5828,7 +5828,7 @@
         <v>1617.8</v>
       </c>
       <c r="O110" t="n">
-        <v>1724.55</v>
+        <v>1781.13</v>
       </c>
     </row>
     <row r="111">
@@ -5877,7 +5877,7 @@
         <v>1342.29</v>
       </c>
       <c r="O111" t="n">
-        <v>1311.81</v>
+        <v>1285.9</v>
       </c>
     </row>
     <row r="112">
@@ -5926,7 +5926,7 @@
         <v>1245.76</v>
       </c>
       <c r="O112" t="n">
-        <v>1091.76</v>
+        <v>977.23</v>
       </c>
     </row>
     <row r="113">
@@ -5975,7 +5975,7 @@
         <v>1425.01</v>
       </c>
       <c r="O113" t="n">
-        <v>1183.1</v>
+        <v>1095.58</v>
       </c>
     </row>
     <row r="114">
@@ -6024,7 +6024,7 @@
         <v>1321.29</v>
       </c>
       <c r="O114" t="n">
-        <v>1511.5</v>
+        <v>1521.41</v>
       </c>
     </row>
     <row r="115">
@@ -6073,7 +6073,7 @@
         <v>1440.87</v>
       </c>
       <c r="O115" t="n">
-        <v>1161.99</v>
+        <v>1152.08</v>
       </c>
     </row>
     <row r="116">
@@ -6171,7 +6171,7 @@
         <v>1353.8</v>
       </c>
       <c r="O117" t="n">
-        <v>1556.69</v>
+        <v>1565.96</v>
       </c>
     </row>
     <row r="118">
@@ -6514,7 +6514,7 @@
         <v>1228.02</v>
       </c>
       <c r="O124" t="n">
-        <v>1117.95</v>
+        <v>1102.93</v>
       </c>
     </row>
     <row r="125">
@@ -6563,7 +6563,7 @@
         <v>1342.59</v>
       </c>
       <c r="O125" t="n">
-        <v>1132.42</v>
+        <v>1124.82</v>
       </c>
     </row>
     <row r="126">
@@ -6612,7 +6612,7 @@
         <v>1037.38</v>
       </c>
       <c r="O126" t="n">
-        <v>846.09</v>
+        <v>833.17</v>
       </c>
     </row>
     <row r="127">
@@ -6661,7 +6661,7 @@
         <v>1126.66</v>
       </c>
       <c r="O127" t="n">
-        <v>1361.88</v>
+        <v>1281.33</v>
       </c>
     </row>
     <row r="128">
@@ -6759,7 +6759,7 @@
         <v>1034.52</v>
       </c>
       <c r="O129" t="n">
-        <v>1029.93</v>
+        <v>972.6900000000001</v>
       </c>
     </row>
     <row r="130">
@@ -6808,7 +6808,7 @@
         <v>1213.52</v>
       </c>
       <c r="O130" t="n">
-        <v>1367.99</v>
+        <v>1390.83</v>
       </c>
     </row>
     <row r="131">
@@ -6955,7 +6955,7 @@
         <v>1314.89</v>
       </c>
       <c r="O133" t="n">
-        <v>1311.64</v>
+        <v>1282.58</v>
       </c>
     </row>
     <row r="134">
@@ -7102,7 +7102,7 @@
         <v>1344.26</v>
       </c>
       <c r="O136" t="n">
-        <v>1502.59</v>
+        <v>1521.97</v>
       </c>
     </row>
     <row r="137">
@@ -7249,7 +7249,7 @@
         <v>1193.56</v>
       </c>
       <c r="O139" t="n">
-        <v>1072</v>
+        <v>1121.08</v>
       </c>
     </row>
     <row r="140">
@@ -7445,7 +7445,7 @@
         <v>1028.35</v>
       </c>
       <c r="O143" t="n">
-        <v>1092.09</v>
+        <v>1098.1</v>
       </c>
     </row>
     <row r="144">
@@ -7543,7 +7543,7 @@
         <v>1189.67</v>
       </c>
       <c r="O145" t="n">
-        <v>1370.25</v>
+        <v>1425.61</v>
       </c>
     </row>
     <row r="146">
@@ -7690,7 +7690,7 @@
         <v>1481.03</v>
       </c>
       <c r="O148" t="n">
-        <v>1437.38</v>
+        <v>1447.38</v>
       </c>
     </row>
     <row r="149">
@@ -7739,7 +7739,7 @@
         <v>1276.75</v>
       </c>
       <c r="O149" t="n">
-        <v>1229.42</v>
+        <v>1234.43</v>
       </c>
     </row>
     <row r="150">
@@ -7788,7 +7788,7 @@
         <v>1517.29</v>
       </c>
       <c r="O150" t="n">
-        <v>1729.79</v>
+        <v>1673.21</v>
       </c>
     </row>
     <row r="151">
@@ -7837,7 +7837,7 @@
         <v>1345.28</v>
       </c>
       <c r="O151" t="n">
-        <v>1476</v>
+        <v>1490.79</v>
       </c>
     </row>
     <row r="152">
@@ -7886,7 +7886,7 @@
         <v>1277.4</v>
       </c>
       <c r="O152" t="n">
-        <v>1370.79</v>
+        <v>1386.66</v>
       </c>
     </row>
     <row r="153">
@@ -7935,7 +7935,7 @@
         <v>1089.78</v>
       </c>
       <c r="O153" t="n">
-        <v>1206.47</v>
+        <v>1238.23</v>
       </c>
     </row>
     <row r="154">
@@ -7984,7 +7984,7 @@
         <v>1452.71</v>
       </c>
       <c r="O154" t="n">
-        <v>1611.58</v>
+        <v>1637.9</v>
       </c>
     </row>
     <row r="155">
@@ -8033,7 +8033,7 @@
         <v>1458.49</v>
       </c>
       <c r="O155" t="n">
-        <v>1469.42</v>
+        <v>1429.94</v>
       </c>
     </row>
     <row r="156">
@@ -8082,7 +8082,7 @@
         <v>1530.47</v>
       </c>
       <c r="O156" t="n">
-        <v>1550.3</v>
+        <v>1567.58</v>
       </c>
     </row>
     <row r="157">
@@ -8131,7 +8131,7 @@
         <v>1434.76</v>
       </c>
       <c r="O157" t="n">
-        <v>1148.67</v>
+        <v>1081.06</v>
       </c>
     </row>
     <row r="158">
@@ -8327,7 +8327,7 @@
         <v>1356.63</v>
       </c>
       <c r="O161" t="n">
-        <v>1225.4</v>
+        <v>1263.11</v>
       </c>
     </row>
     <row r="162">
@@ -8425,7 +8425,7 @@
         <v>1116.23</v>
       </c>
       <c r="O163" t="n">
-        <v>1123.53</v>
+        <v>1141.47</v>
       </c>
     </row>
     <row r="164">
@@ -8523,7 +8523,7 @@
         <v>1248.17</v>
       </c>
       <c r="O165" t="n">
-        <v>1282.39</v>
+        <v>1183.28</v>
       </c>
     </row>
     <row r="166">
@@ -8768,7 +8768,7 @@
         <v>1199.5</v>
       </c>
       <c r="O170" t="n">
-        <v>946.15</v>
+        <v>1050.03</v>
       </c>
     </row>
     <row r="171">
@@ -8817,7 +8817,7 @@
         <v>1168.69</v>
       </c>
       <c r="O171" t="n">
-        <v>1314.43</v>
+        <v>1394.98</v>
       </c>
     </row>
     <row r="172">
@@ -8915,7 +8915,7 @@
         <v>1260.41</v>
       </c>
       <c r="O173" t="n">
-        <v>1240.6</v>
+        <v>1156.34</v>
       </c>
     </row>
     <row r="174">
@@ -8964,7 +8964,7 @@
         <v>1419.87</v>
       </c>
       <c r="O174" t="n">
-        <v>1338.86</v>
+        <v>1299.4</v>
       </c>
     </row>
     <row r="175">
@@ -9160,7 +9160,7 @@
         <v>1067.77</v>
       </c>
       <c r="O178" t="n">
-        <v>1090.41</v>
+        <v>1113.97</v>
       </c>
     </row>
     <row r="179">
@@ -9454,7 +9454,7 @@
         <v>1263.38</v>
       </c>
       <c r="O184" t="n">
-        <v>1405.98</v>
+        <v>1415.99</v>
       </c>
     </row>
     <row r="185">
@@ -9503,7 +9503,7 @@
         <v>1249.85</v>
       </c>
       <c r="O185" t="n">
-        <v>1015.52</v>
+        <v>1009.05</v>
       </c>
     </row>
     <row r="186">
@@ -9601,7 +9601,7 @@
         <v>1227.98</v>
       </c>
       <c r="O187" t="n">
-        <v>1089.14</v>
+        <v>1074.15</v>
       </c>
     </row>
     <row r="188">
@@ -9748,7 +9748,7 @@
         <v>1312.94</v>
       </c>
       <c r="O190" t="n">
-        <v>1164.73</v>
+        <v>1213.65</v>
       </c>
     </row>
     <row r="191">
@@ -9797,7 +9797,7 @@
         <v>1128.77</v>
       </c>
       <c r="O191" t="n">
-        <v>923.98</v>
+        <v>909.96</v>
       </c>
     </row>
     <row r="192">
@@ -9846,7 +9846,7 @@
         <v>1513.18</v>
       </c>
       <c r="O192" t="n">
-        <v>1393.59</v>
+        <v>1399.5</v>
       </c>
     </row>
     <row r="193">
@@ -10042,7 +10042,7 @@
         <v>1452.75</v>
       </c>
       <c r="O196" t="n">
-        <v>1629.56</v>
+        <v>1645.95</v>
       </c>
     </row>
     <row r="197">
@@ -10091,7 +10091,7 @@
         <v>1330.29</v>
       </c>
       <c r="O197" t="n">
-        <v>1364.44</v>
+        <v>1322.37</v>
       </c>
     </row>
     <row r="198">
@@ -10189,7 +10189,7 @@
         <v>1571.03</v>
       </c>
       <c r="O199" t="n">
-        <v>1244.35</v>
+        <v>1222.16</v>
       </c>
     </row>
     <row r="200">
@@ -10287,7 +10287,7 @@
         <v>1145.58</v>
       </c>
       <c r="O201" t="n">
-        <v>1115.9</v>
+        <v>1200.16</v>
       </c>
     </row>
     <row r="202">
@@ -10336,7 +10336,7 @@
         <v>1445.67</v>
       </c>
       <c r="O202" t="n">
-        <v>1413.12</v>
+        <v>1388.54</v>
       </c>
     </row>
     <row r="203">
@@ -10385,7 +10385,7 @@
         <v>1140.58</v>
       </c>
       <c r="O203" t="n">
-        <v>896.97</v>
+        <v>893.04</v>
       </c>
     </row>
     <row r="204">
@@ -10434,7 +10434,7 @@
         <v>1336.01</v>
       </c>
       <c r="O204" t="n">
-        <v>1366.48</v>
+        <v>1315.84</v>
       </c>
     </row>
     <row r="205">
@@ -10483,7 +10483,7 @@
         <v>1255.81</v>
       </c>
       <c r="O205" t="n">
-        <v>1404.91</v>
+        <v>1412.61</v>
       </c>
     </row>
     <row r="206">
@@ -10581,7 +10581,7 @@
         <v>1438.89</v>
       </c>
       <c r="O207" t="n">
-        <v>1479.39</v>
+        <v>1483.71</v>
       </c>
     </row>
     <row r="208">
@@ -10630,7 +10630,7 @@
         <v>1454.11</v>
       </c>
       <c r="O208" t="n">
-        <v>1466.01</v>
+        <v>1499.77</v>
       </c>
     </row>
     <row r="209">
@@ -10679,7 +10679,7 @@
         <v>1221.6</v>
       </c>
       <c r="O209" t="n">
-        <v>865.4400000000001</v>
+        <v>957.73</v>
       </c>
     </row>
     <row r="210">
@@ -10728,7 +10728,7 @@
         <v>1362.99</v>
       </c>
       <c r="O210" t="n">
-        <v>1354.36</v>
+        <v>1220.46</v>
       </c>
     </row>
     <row r="211">
@@ -10777,7 +10777,7 @@
         <v>1433.47</v>
       </c>
       <c r="O211" t="n">
-        <v>1360.65</v>
+        <v>1368.23</v>
       </c>
     </row>
     <row r="212">
@@ -10826,7 +10826,7 @@
         <v>1173.37</v>
       </c>
       <c r="O212" t="n">
-        <v>1081.94</v>
+        <v>1139.17</v>
       </c>
     </row>
     <row r="213">
@@ -10875,7 +10875,7 @@
         <v>1339.8</v>
       </c>
       <c r="O213" t="n">
-        <v>1032.24</v>
+        <v>1023.38</v>
       </c>
     </row>
     <row r="214">
@@ -10973,7 +10973,7 @@
         <v>1228.11</v>
       </c>
       <c r="O215" t="n">
-        <v>1194.12</v>
+        <v>1134.27</v>
       </c>
     </row>
     <row r="216">
@@ -11071,7 +11071,7 @@
         <v>1251.56</v>
       </c>
       <c r="O217" t="n">
-        <v>1322.81</v>
+        <v>1362.71</v>
       </c>
     </row>
     <row r="218">
@@ -11169,7 +11169,7 @@
         <v>1376.65</v>
       </c>
       <c r="O219" t="n">
-        <v>1137.2</v>
+        <v>1088.28</v>
       </c>
     </row>
     <row r="220">
@@ -11218,7 +11218,7 @@
         <v>1550.13</v>
       </c>
       <c r="O220" t="n">
-        <v>1717.17</v>
+        <v>1718.08</v>
       </c>
     </row>
     <row r="221">
@@ -11267,7 +11267,7 @@
         <v>1338.67</v>
       </c>
       <c r="O221" t="n">
-        <v>1106.26</v>
+        <v>1105.35</v>
       </c>
     </row>
     <row r="222">
@@ -11365,7 +11365,7 @@
         <v>1360.69</v>
       </c>
       <c r="O223" t="n">
-        <v>1328.07</v>
+        <v>1345.73</v>
       </c>
     </row>
     <row r="224">
@@ -11512,7 +11512,7 @@
         <v>1285.97</v>
       </c>
       <c r="O226" t="n">
-        <v>1127.12</v>
+        <v>1141.99</v>
       </c>
     </row>
     <row r="227">
@@ -11561,7 +11561,7 @@
         <v>1177.09</v>
       </c>
       <c r="O227" t="n">
-        <v>1032.3</v>
+        <v>860.4400000000001</v>
       </c>
     </row>
     <row r="228">
@@ -11659,7 +11659,7 @@
         <v>1366.99</v>
       </c>
       <c r="O229" t="n">
-        <v>1230.44</v>
+        <v>1288.79</v>
       </c>
     </row>
     <row r="230">
@@ -11757,7 +11757,7 @@
         <v>1195.02</v>
       </c>
       <c r="O231" t="n">
-        <v>1215.31</v>
+        <v>1223.92</v>
       </c>
     </row>
     <row r="232">

--- a/Input Data/Update Elo/Elo By Year.xlsx
+++ b/Input Data/Update Elo/Elo By Year.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O233"/>
+  <dimension ref="A1:P233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>2023 - Temp</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2023 - Theoretical</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -538,6 +543,9 @@
       <c r="O2" t="n">
         <v>736.59</v>
       </c>
+      <c r="P2" t="n">
+        <v>736.59</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -587,6 +595,9 @@
       <c r="O3" t="n">
         <v>1086.29</v>
       </c>
+      <c r="P3" t="n">
+        <v>1086.29</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -636,6 +647,9 @@
       <c r="O4" t="n">
         <v>778.14</v>
       </c>
+      <c r="P4" t="n">
+        <v>778.14</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -685,6 +699,9 @@
       <c r="O5" t="n">
         <v>1682.34</v>
       </c>
+      <c r="P5" t="n">
+        <v>1682.34</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -734,6 +751,9 @@
       <c r="O6" t="n">
         <v>745.14</v>
       </c>
+      <c r="P6" t="n">
+        <v>745.14</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -783,6 +803,9 @@
       <c r="O7" t="n">
         <v>749.26</v>
       </c>
+      <c r="P7" t="n">
+        <v>749.26</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -832,6 +855,9 @@
       <c r="O8" t="n">
         <v>996.08</v>
       </c>
+      <c r="P8" t="n">
+        <v>996.08</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -881,6 +907,9 @@
       <c r="O9" t="n">
         <v>732.42</v>
       </c>
+      <c r="P9" t="n">
+        <v>732.42</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -930,6 +959,9 @@
       <c r="O10" t="n">
         <v>743.1</v>
       </c>
+      <c r="P10" t="n">
+        <v>743.1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -979,6 +1011,9 @@
       <c r="O11" t="n">
         <v>1383.28</v>
       </c>
+      <c r="P11" t="n">
+        <v>1383.28</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1028,6 +1063,9 @@
       <c r="O12" t="n">
         <v>1578.51</v>
       </c>
+      <c r="P12" t="n">
+        <v>1578.51</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1077,6 +1115,9 @@
       <c r="O13" t="n">
         <v>1218.36</v>
       </c>
+      <c r="P13" t="n">
+        <v>1218.36</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1126,6 +1167,9 @@
       <c r="O14" t="n">
         <v>1183.95</v>
       </c>
+      <c r="P14" t="n">
+        <v>1183.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1175,6 +1219,9 @@
       <c r="O15" t="n">
         <v>1086.8</v>
       </c>
+      <c r="P15" t="n">
+        <v>1086.8</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1224,6 +1271,9 @@
       <c r="O16" t="n">
         <v>745.61</v>
       </c>
+      <c r="P16" t="n">
+        <v>745.61</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1273,6 +1323,9 @@
       <c r="O17" t="n">
         <v>1249.5</v>
       </c>
+      <c r="P17" t="n">
+        <v>1249.5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1322,6 +1375,9 @@
       <c r="O18" t="n">
         <v>1245.16</v>
       </c>
+      <c r="P18" t="n">
+        <v>1245.16</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1371,6 +1427,9 @@
       <c r="O19" t="n">
         <v>748.35</v>
       </c>
+      <c r="P19" t="n">
+        <v>748.35</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1420,6 +1479,9 @@
       <c r="O20" t="n">
         <v>1016.08</v>
       </c>
+      <c r="P20" t="n">
+        <v>1016.08</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1469,6 +1531,9 @@
       <c r="O21" t="n">
         <v>1045.29</v>
       </c>
+      <c r="P21" t="n">
+        <v>1045.29</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1518,6 +1583,9 @@
       <c r="O22" t="n">
         <v>743.8200000000001</v>
       </c>
+      <c r="P22" t="n">
+        <v>743.8200000000001</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1567,6 +1635,9 @@
       <c r="O23" t="n">
         <v>1314.03</v>
       </c>
+      <c r="P23" t="n">
+        <v>1314.03</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1616,6 +1687,9 @@
       <c r="O24" t="n">
         <v>1082.64</v>
       </c>
+      <c r="P24" t="n">
+        <v>1082.64</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1665,6 +1739,9 @@
       <c r="O25" t="n">
         <v>1385.64</v>
       </c>
+      <c r="P25" t="n">
+        <v>1385.64</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1714,6 +1791,9 @@
       <c r="O26" t="n">
         <v>1133.68</v>
       </c>
+      <c r="P26" t="n">
+        <v>1133.68</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1763,6 +1843,9 @@
       <c r="O27" t="n">
         <v>744.78</v>
       </c>
+      <c r="P27" t="n">
+        <v>744.78</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1812,6 +1895,9 @@
       <c r="O28" t="n">
         <v>902.71</v>
       </c>
+      <c r="P28" t="n">
+        <v>902.71</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1861,6 +1947,9 @@
       <c r="O29" t="n">
         <v>740.6799999999999</v>
       </c>
+      <c r="P29" t="n">
+        <v>740.6799999999999</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1910,6 +1999,9 @@
       <c r="O30" t="n">
         <v>1354.34</v>
       </c>
+      <c r="P30" t="n">
+        <v>1354.34</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1959,6 +2051,9 @@
       <c r="O31" t="n">
         <v>778.78</v>
       </c>
+      <c r="P31" t="n">
+        <v>778.78</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2008,6 +2103,9 @@
       <c r="O32" t="n">
         <v>740.1</v>
       </c>
+      <c r="P32" t="n">
+        <v>740.1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2057,6 +2155,9 @@
       <c r="O33" t="n">
         <v>744.5700000000001</v>
       </c>
+      <c r="P33" t="n">
+        <v>744.5700000000001</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2106,6 +2207,9 @@
       <c r="O34" t="n">
         <v>1283.92</v>
       </c>
+      <c r="P34" t="n">
+        <v>1283.92</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2155,6 +2259,9 @@
       <c r="O35" t="n">
         <v>1008.44</v>
       </c>
+      <c r="P35" t="n">
+        <v>1008.44</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2204,6 +2311,9 @@
       <c r="O36" t="n">
         <v>747.1900000000001</v>
       </c>
+      <c r="P36" t="n">
+        <v>747.1900000000001</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2253,6 +2363,9 @@
       <c r="O37" t="n">
         <v>894.88</v>
       </c>
+      <c r="P37" t="n">
+        <v>894.88</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2302,6 +2415,9 @@
       <c r="O38" t="n">
         <v>748.14</v>
       </c>
+      <c r="P38" t="n">
+        <v>748.14</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2351,6 +2467,9 @@
       <c r="O39" t="n">
         <v>1070.6</v>
       </c>
+      <c r="P39" t="n">
+        <v>1070.6</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2400,6 +2519,9 @@
       <c r="O40" t="n">
         <v>745.21</v>
       </c>
+      <c r="P40" t="n">
+        <v>745.21</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2449,6 +2571,9 @@
       <c r="O41" t="n">
         <v>1509.14</v>
       </c>
+      <c r="P41" t="n">
+        <v>1509.14</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2498,6 +2623,9 @@
       <c r="O42" t="n">
         <v>1225.43</v>
       </c>
+      <c r="P42" t="n">
+        <v>1225.43</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2547,6 +2675,9 @@
       <c r="O43" t="n">
         <v>739.35</v>
       </c>
+      <c r="P43" t="n">
+        <v>739.35</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2596,6 +2727,9 @@
       <c r="O44" t="n">
         <v>1026.07</v>
       </c>
+      <c r="P44" t="n">
+        <v>1026.07</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2645,6 +2779,9 @@
       <c r="O45" t="n">
         <v>1058.49</v>
       </c>
+      <c r="P45" t="n">
+        <v>1058.49</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2694,6 +2831,9 @@
       <c r="O46" t="n">
         <v>1059.44</v>
       </c>
+      <c r="P46" t="n">
+        <v>1059.44</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2743,6 +2883,9 @@
       <c r="O47" t="n">
         <v>810.8200000000001</v>
       </c>
+      <c r="P47" t="n">
+        <v>810.8200000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2792,6 +2935,9 @@
       <c r="O48" t="n">
         <v>743.23</v>
       </c>
+      <c r="P48" t="n">
+        <v>743.23</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2841,6 +2987,9 @@
       <c r="O49" t="n">
         <v>1238.38</v>
       </c>
+      <c r="P49" t="n">
+        <v>1238.38</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2890,6 +3039,9 @@
       <c r="O50" t="n">
         <v>767.71</v>
       </c>
+      <c r="P50" t="n">
+        <v>767.71</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2939,6 +3091,9 @@
       <c r="O51" t="n">
         <v>878.3200000000001</v>
       </c>
+      <c r="P51" t="n">
+        <v>878.3200000000001</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2988,6 +3143,9 @@
       <c r="O52" t="n">
         <v>665.96</v>
       </c>
+      <c r="P52" t="n">
+        <v>665.96</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3037,6 +3195,9 @@
       <c r="O53" t="n">
         <v>779.1900000000001</v>
       </c>
+      <c r="P53" t="n">
+        <v>779.1900000000001</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3086,6 +3247,9 @@
       <c r="O54" t="n">
         <v>1069.91</v>
       </c>
+      <c r="P54" t="n">
+        <v>1069.91</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3135,6 +3299,9 @@
       <c r="O55" t="n">
         <v>777.13</v>
       </c>
+      <c r="P55" t="n">
+        <v>777.13</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3184,6 +3351,9 @@
       <c r="O56" t="n">
         <v>746.85</v>
       </c>
+      <c r="P56" t="n">
+        <v>746.85</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3233,6 +3403,9 @@
       <c r="O57" t="n">
         <v>1230.59</v>
       </c>
+      <c r="P57" t="n">
+        <v>1230.59</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3282,6 +3455,9 @@
       <c r="O58" t="n">
         <v>732.3</v>
       </c>
+      <c r="P58" t="n">
+        <v>732.3</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3331,6 +3507,9 @@
       <c r="O59" t="n">
         <v>902.91</v>
       </c>
+      <c r="P59" t="n">
+        <v>902.91</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3380,6 +3559,9 @@
       <c r="O60" t="n">
         <v>813.87</v>
       </c>
+      <c r="P60" t="n">
+        <v>813.87</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3429,6 +3611,9 @@
       <c r="O61" t="n">
         <v>1636.25</v>
       </c>
+      <c r="P61" t="n">
+        <v>1636.25</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3478,6 +3663,9 @@
       <c r="O62" t="n">
         <v>867.04</v>
       </c>
+      <c r="P62" t="n">
+        <v>867.04</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3527,6 +3715,9 @@
       <c r="O63" t="n">
         <v>1027.84</v>
       </c>
+      <c r="P63" t="n">
+        <v>1027.84</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3576,6 +3767,9 @@
       <c r="O64" t="n">
         <v>747</v>
       </c>
+      <c r="P64" t="n">
+        <v>747</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3625,6 +3819,9 @@
       <c r="O65" t="n">
         <v>729.22</v>
       </c>
+      <c r="P65" t="n">
+        <v>729.22</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3674,6 +3871,9 @@
       <c r="O66" t="n">
         <v>1789.55</v>
       </c>
+      <c r="P66" t="n">
+        <v>1789.55</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3723,6 +3923,9 @@
       <c r="O67" t="n">
         <v>1039.42</v>
       </c>
+      <c r="P67" t="n">
+        <v>1039.42</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3772,6 +3975,9 @@
       <c r="O68" t="n">
         <v>1064.4</v>
       </c>
+      <c r="P68" t="n">
+        <v>1064.4</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3821,6 +4027,9 @@
       <c r="O69" t="n">
         <v>1296.26</v>
       </c>
+      <c r="P69" t="n">
+        <v>1296.26</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3870,6 +4079,9 @@
       <c r="O70" t="n">
         <v>739.23</v>
       </c>
+      <c r="P70" t="n">
+        <v>739.23</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3919,6 +4131,9 @@
       <c r="O71" t="n">
         <v>746.97</v>
       </c>
+      <c r="P71" t="n">
+        <v>746.97</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3968,6 +4183,9 @@
       <c r="O72" t="n">
         <v>1114.56</v>
       </c>
+      <c r="P72" t="n">
+        <v>1114.56</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4017,6 +4235,9 @@
       <c r="O73" t="n">
         <v>750</v>
       </c>
+      <c r="P73" t="n">
+        <v>750</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4066,6 +4287,9 @@
       <c r="O74" t="n">
         <v>1085.29</v>
       </c>
+      <c r="P74" t="n">
+        <v>1085.29</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4115,6 +4339,9 @@
       <c r="O75" t="n">
         <v>742.25</v>
       </c>
+      <c r="P75" t="n">
+        <v>742.25</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4164,6 +4391,9 @@
       <c r="O76" t="n">
         <v>740.86</v>
       </c>
+      <c r="P76" t="n">
+        <v>740.86</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4213,6 +4443,9 @@
       <c r="O77" t="n">
         <v>900.3200000000001</v>
       </c>
+      <c r="P77" t="n">
+        <v>900.3200000000001</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4262,6 +4495,9 @@
       <c r="O78" t="n">
         <v>738.2</v>
       </c>
+      <c r="P78" t="n">
+        <v>738.2</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4311,6 +4547,9 @@
       <c r="O79" t="n">
         <v>1254.98</v>
       </c>
+      <c r="P79" t="n">
+        <v>1254.98</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4360,6 +4599,9 @@
       <c r="O80" t="n">
         <v>748.59</v>
       </c>
+      <c r="P80" t="n">
+        <v>748.59</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4409,6 +4651,9 @@
       <c r="O81" t="n">
         <v>825.3</v>
       </c>
+      <c r="P81" t="n">
+        <v>825.3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4458,6 +4703,9 @@
       <c r="O82" t="n">
         <v>1108.31</v>
       </c>
+      <c r="P82" t="n">
+        <v>1108.31</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4507,6 +4755,9 @@
       <c r="O83" t="n">
         <v>738.52</v>
       </c>
+      <c r="P83" t="n">
+        <v>738.52</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4556,6 +4807,9 @@
       <c r="O84" t="n">
         <v>1526.67</v>
       </c>
+      <c r="P84" t="n">
+        <v>1636.14</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4605,6 +4859,9 @@
       <c r="O85" t="n">
         <v>1467.07</v>
       </c>
+      <c r="P85" t="n">
+        <v>1467.07</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4654,6 +4911,9 @@
       <c r="O86" t="n">
         <v>741.66</v>
       </c>
+      <c r="P86" t="n">
+        <v>741.66</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4703,6 +4963,9 @@
       <c r="O87" t="n">
         <v>1179.97</v>
       </c>
+      <c r="P87" t="n">
+        <v>1179.97</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4752,6 +5015,9 @@
       <c r="O88" t="n">
         <v>1452.54</v>
       </c>
+      <c r="P88" t="n">
+        <v>1452.54</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4801,6 +5067,9 @@
       <c r="O89" t="n">
         <v>1361.81</v>
       </c>
+      <c r="P89" t="n">
+        <v>1361.81</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4850,6 +5119,9 @@
       <c r="O90" t="n">
         <v>1415.12</v>
       </c>
+      <c r="P90" t="n">
+        <v>1415.12</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4899,6 +5171,9 @@
       <c r="O91" t="n">
         <v>667.23</v>
       </c>
+      <c r="P91" t="n">
+        <v>667.23</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4948,6 +5223,9 @@
       <c r="O92" t="n">
         <v>1368.65</v>
       </c>
+      <c r="P92" t="n">
+        <v>1368.65</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4997,6 +5275,9 @@
       <c r="O93" t="n">
         <v>741.86</v>
       </c>
+      <c r="P93" t="n">
+        <v>741.86</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5046,6 +5327,9 @@
       <c r="O94" t="n">
         <v>739.15</v>
       </c>
+      <c r="P94" t="n">
+        <v>739.15</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5095,6 +5379,9 @@
       <c r="O95" t="n">
         <v>1430.34</v>
       </c>
+      <c r="P95" t="n">
+        <v>1430.34</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -5144,6 +5431,9 @@
       <c r="O96" t="n">
         <v>1059.23</v>
       </c>
+      <c r="P96" t="n">
+        <v>1059.23</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5193,6 +5483,9 @@
       <c r="O97" t="n">
         <v>1524.09</v>
       </c>
+      <c r="P97" t="n">
+        <v>1524.09</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5242,6 +5535,9 @@
       <c r="O98" t="n">
         <v>778.3099999999999</v>
       </c>
+      <c r="P98" t="n">
+        <v>778.3099999999999</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5291,6 +5587,9 @@
       <c r="O99" t="n">
         <v>825.0700000000001</v>
       </c>
+      <c r="P99" t="n">
+        <v>825.0700000000001</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5340,6 +5639,9 @@
       <c r="O100" t="n">
         <v>1405.18</v>
       </c>
+      <c r="P100" t="n">
+        <v>1405.18</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5389,6 +5691,9 @@
       <c r="O101" t="n">
         <v>745.53</v>
       </c>
+      <c r="P101" t="n">
+        <v>745.53</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -5438,6 +5743,9 @@
       <c r="O102" t="n">
         <v>1163.77</v>
       </c>
+      <c r="P102" t="n">
+        <v>1163.77</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -5487,6 +5795,9 @@
       <c r="O103" t="n">
         <v>1363.56</v>
       </c>
+      <c r="P103" t="n">
+        <v>1363.56</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -5536,6 +5847,9 @@
       <c r="O104" t="n">
         <v>886.7</v>
       </c>
+      <c r="P104" t="n">
+        <v>886.7</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -5585,6 +5899,9 @@
       <c r="O105" t="n">
         <v>742.03</v>
       </c>
+      <c r="P105" t="n">
+        <v>742.03</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -5634,6 +5951,9 @@
       <c r="O106" t="n">
         <v>1291.04</v>
       </c>
+      <c r="P106" t="n">
+        <v>1291.04</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -5683,6 +6003,9 @@
       <c r="O107" t="n">
         <v>747.04</v>
       </c>
+      <c r="P107" t="n">
+        <v>747.04</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -5732,6 +6055,9 @@
       <c r="O108" t="n">
         <v>1306.63</v>
       </c>
+      <c r="P108" t="n">
+        <v>1306.63</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -5781,6 +6107,9 @@
       <c r="O109" t="n">
         <v>1361.13</v>
       </c>
+      <c r="P109" t="n">
+        <v>1361.13</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -5830,6 +6159,9 @@
       <c r="O110" t="n">
         <v>1781.13</v>
       </c>
+      <c r="P110" t="n">
+        <v>1671.66</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -5879,6 +6211,9 @@
       <c r="O111" t="n">
         <v>1285.9</v>
       </c>
+      <c r="P111" t="n">
+        <v>1285.9</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -5928,6 +6263,9 @@
       <c r="O112" t="n">
         <v>977.23</v>
       </c>
+      <c r="P112" t="n">
+        <v>977.23</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -5977,6 +6315,9 @@
       <c r="O113" t="n">
         <v>1095.58</v>
       </c>
+      <c r="P113" t="n">
+        <v>1095.58</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -6026,6 +6367,9 @@
       <c r="O114" t="n">
         <v>1521.41</v>
       </c>
+      <c r="P114" t="n">
+        <v>1521.41</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -6075,6 +6419,9 @@
       <c r="O115" t="n">
         <v>1152.08</v>
       </c>
+      <c r="P115" t="n">
+        <v>1152.08</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -6124,6 +6471,9 @@
       <c r="O116" t="n">
         <v>750</v>
       </c>
+      <c r="P116" t="n">
+        <v>750</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -6173,6 +6523,9 @@
       <c r="O117" t="n">
         <v>1565.96</v>
       </c>
+      <c r="P117" t="n">
+        <v>1565.96</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -6222,6 +6575,9 @@
       <c r="O118" t="n">
         <v>747.6</v>
       </c>
+      <c r="P118" t="n">
+        <v>747.6</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -6271,6 +6627,9 @@
       <c r="O119" t="n">
         <v>741.29</v>
       </c>
+      <c r="P119" t="n">
+        <v>741.29</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -6320,6 +6679,9 @@
       <c r="O120" t="n">
         <v>781.17</v>
       </c>
+      <c r="P120" t="n">
+        <v>781.17</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -6369,6 +6731,9 @@
       <c r="O121" t="n">
         <v>748.8</v>
       </c>
+      <c r="P121" t="n">
+        <v>748.8</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -6418,6 +6783,9 @@
       <c r="O122" t="n">
         <v>735.16</v>
       </c>
+      <c r="P122" t="n">
+        <v>735.16</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -6467,6 +6835,9 @@
       <c r="O123" t="n">
         <v>721.74</v>
       </c>
+      <c r="P123" t="n">
+        <v>721.74</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -6516,6 +6887,9 @@
       <c r="O124" t="n">
         <v>1102.93</v>
       </c>
+      <c r="P124" t="n">
+        <v>1102.93</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -6565,6 +6939,9 @@
       <c r="O125" t="n">
         <v>1124.82</v>
       </c>
+      <c r="P125" t="n">
+        <v>1124.82</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -6614,6 +6991,9 @@
       <c r="O126" t="n">
         <v>833.17</v>
       </c>
+      <c r="P126" t="n">
+        <v>833.17</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -6663,6 +7043,9 @@
       <c r="O127" t="n">
         <v>1281.33</v>
       </c>
+      <c r="P127" t="n">
+        <v>1281.33</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -6712,6 +7095,9 @@
       <c r="O128" t="n">
         <v>739.1900000000001</v>
       </c>
+      <c r="P128" t="n">
+        <v>739.1900000000001</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -6761,6 +7147,9 @@
       <c r="O129" t="n">
         <v>972.6900000000001</v>
       </c>
+      <c r="P129" t="n">
+        <v>972.6900000000001</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -6810,6 +7199,9 @@
       <c r="O130" t="n">
         <v>1390.83</v>
       </c>
+      <c r="P130" t="n">
+        <v>1390.83</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -6859,6 +7251,9 @@
       <c r="O131" t="n">
         <v>739</v>
       </c>
+      <c r="P131" t="n">
+        <v>739</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -6908,6 +7303,9 @@
       <c r="O132" t="n">
         <v>738.02</v>
       </c>
+      <c r="P132" t="n">
+        <v>738.02</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -6957,6 +7355,9 @@
       <c r="O133" t="n">
         <v>1282.58</v>
       </c>
+      <c r="P133" t="n">
+        <v>1282.58</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -7006,6 +7407,9 @@
       <c r="O134" t="n">
         <v>744.62</v>
       </c>
+      <c r="P134" t="n">
+        <v>744.62</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -7055,6 +7459,9 @@
       <c r="O135" t="n">
         <v>748.72</v>
       </c>
+      <c r="P135" t="n">
+        <v>748.72</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -7104,6 +7511,9 @@
       <c r="O136" t="n">
         <v>1521.97</v>
       </c>
+      <c r="P136" t="n">
+        <v>1521.97</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -7153,6 +7563,9 @@
       <c r="O137" t="n">
         <v>743.54</v>
       </c>
+      <c r="P137" t="n">
+        <v>743.54</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -7202,6 +7615,9 @@
       <c r="O138" t="n">
         <v>748.88</v>
       </c>
+      <c r="P138" t="n">
+        <v>748.88</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -7251,6 +7667,9 @@
       <c r="O139" t="n">
         <v>1121.08</v>
       </c>
+      <c r="P139" t="n">
+        <v>1121.08</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -7300,6 +7719,9 @@
       <c r="O140" t="n">
         <v>750</v>
       </c>
+      <c r="P140" t="n">
+        <v>750</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -7349,6 +7771,9 @@
       <c r="O141" t="n">
         <v>776.65</v>
       </c>
+      <c r="P141" t="n">
+        <v>776.65</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -7398,6 +7823,9 @@
       <c r="O142" t="n">
         <v>747.48</v>
       </c>
+      <c r="P142" t="n">
+        <v>747.48</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -7447,6 +7875,9 @@
       <c r="O143" t="n">
         <v>1098.1</v>
       </c>
+      <c r="P143" t="n">
+        <v>1098.1</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -7496,6 +7927,9 @@
       <c r="O144" t="n">
         <v>747.14</v>
       </c>
+      <c r="P144" t="n">
+        <v>747.14</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -7545,6 +7979,9 @@
       <c r="O145" t="n">
         <v>1425.61</v>
       </c>
+      <c r="P145" t="n">
+        <v>1425.61</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -7594,6 +8031,9 @@
       <c r="O146" t="n">
         <v>750</v>
       </c>
+      <c r="P146" t="n">
+        <v>750</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -7643,6 +8083,9 @@
       <c r="O147" t="n">
         <v>729.9400000000001</v>
       </c>
+      <c r="P147" t="n">
+        <v>729.9400000000001</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -7692,6 +8135,9 @@
       <c r="O148" t="n">
         <v>1447.38</v>
       </c>
+      <c r="P148" t="n">
+        <v>1447.38</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -7741,6 +8187,9 @@
       <c r="O149" t="n">
         <v>1234.43</v>
       </c>
+      <c r="P149" t="n">
+        <v>1234.43</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -7790,6 +8239,9 @@
       <c r="O150" t="n">
         <v>1673.21</v>
       </c>
+      <c r="P150" t="n">
+        <v>1673.21</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -7839,6 +8291,9 @@
       <c r="O151" t="n">
         <v>1490.79</v>
       </c>
+      <c r="P151" t="n">
+        <v>1490.79</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -7888,6 +8343,9 @@
       <c r="O152" t="n">
         <v>1386.66</v>
       </c>
+      <c r="P152" t="n">
+        <v>1386.66</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -7937,6 +8395,9 @@
       <c r="O153" t="n">
         <v>1238.23</v>
       </c>
+      <c r="P153" t="n">
+        <v>1238.23</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -7986,6 +8447,9 @@
       <c r="O154" t="n">
         <v>1637.9</v>
       </c>
+      <c r="P154" t="n">
+        <v>1637.9</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -8035,6 +8499,9 @@
       <c r="O155" t="n">
         <v>1429.94</v>
       </c>
+      <c r="P155" t="n">
+        <v>1429.94</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -8084,6 +8551,9 @@
       <c r="O156" t="n">
         <v>1567.58</v>
       </c>
+      <c r="P156" t="n">
+        <v>1567.58</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -8133,6 +8603,9 @@
       <c r="O157" t="n">
         <v>1081.06</v>
       </c>
+      <c r="P157" t="n">
+        <v>1081.06</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -8182,6 +8655,9 @@
       <c r="O158" t="n">
         <v>743.1900000000001</v>
       </c>
+      <c r="P158" t="n">
+        <v>743.1900000000001</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -8231,6 +8707,9 @@
       <c r="O159" t="n">
         <v>746.35</v>
       </c>
+      <c r="P159" t="n">
+        <v>746.35</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -8280,6 +8759,9 @@
       <c r="O160" t="n">
         <v>750</v>
       </c>
+      <c r="P160" t="n">
+        <v>750</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -8329,6 +8811,9 @@
       <c r="O161" t="n">
         <v>1263.11</v>
       </c>
+      <c r="P161" t="n">
+        <v>1263.11</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -8378,6 +8863,9 @@
       <c r="O162" t="n">
         <v>772.22</v>
       </c>
+      <c r="P162" t="n">
+        <v>772.22</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -8427,6 +8915,9 @@
       <c r="O163" t="n">
         <v>1141.47</v>
       </c>
+      <c r="P163" t="n">
+        <v>1141.47</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -8476,6 +8967,9 @@
       <c r="O164" t="n">
         <v>747.24</v>
       </c>
+      <c r="P164" t="n">
+        <v>747.24</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -8525,6 +9019,9 @@
       <c r="O165" t="n">
         <v>1183.28</v>
       </c>
+      <c r="P165" t="n">
+        <v>1183.28</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -8574,6 +9071,9 @@
       <c r="O166" t="n">
         <v>927.17</v>
       </c>
+      <c r="P166" t="n">
+        <v>927.17</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -8623,6 +9123,9 @@
       <c r="O167" t="n">
         <v>1351.56</v>
       </c>
+      <c r="P167" t="n">
+        <v>1351.56</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -8672,6 +9175,9 @@
       <c r="O168" t="n">
         <v>748.14</v>
       </c>
+      <c r="P168" t="n">
+        <v>748.14</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -8721,6 +9227,9 @@
       <c r="O169" t="n">
         <v>750</v>
       </c>
+      <c r="P169" t="n">
+        <v>750</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -8770,6 +9279,9 @@
       <c r="O170" t="n">
         <v>1050.03</v>
       </c>
+      <c r="P170" t="n">
+        <v>1050.03</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -8819,6 +9331,9 @@
       <c r="O171" t="n">
         <v>1394.98</v>
       </c>
+      <c r="P171" t="n">
+        <v>1394.98</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -8868,6 +9383,9 @@
       <c r="O172" t="n">
         <v>750</v>
       </c>
+      <c r="P172" t="n">
+        <v>750</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -8917,6 +9435,9 @@
       <c r="O173" t="n">
         <v>1156.34</v>
       </c>
+      <c r="P173" t="n">
+        <v>1156.34</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -8966,6 +9487,9 @@
       <c r="O174" t="n">
         <v>1299.4</v>
       </c>
+      <c r="P174" t="n">
+        <v>1299.4</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -9015,6 +9539,9 @@
       <c r="O175" t="n">
         <v>734.6900000000001</v>
       </c>
+      <c r="P175" t="n">
+        <v>734.6900000000001</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -9064,6 +9591,9 @@
       <c r="O176" t="n">
         <v>747.3200000000001</v>
       </c>
+      <c r="P176" t="n">
+        <v>747.3200000000001</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -9113,6 +9643,9 @@
       <c r="O177" t="n">
         <v>780.0599999999999</v>
       </c>
+      <c r="P177" t="n">
+        <v>780.0599999999999</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -9162,6 +9695,9 @@
       <c r="O178" t="n">
         <v>1113.97</v>
       </c>
+      <c r="P178" t="n">
+        <v>1113.97</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -9211,6 +9747,9 @@
       <c r="O179" t="n">
         <v>748.45</v>
       </c>
+      <c r="P179" t="n">
+        <v>748.45</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -9260,6 +9799,9 @@
       <c r="O180" t="n">
         <v>739.52</v>
       </c>
+      <c r="P180" t="n">
+        <v>739.52</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -9309,6 +9851,9 @@
       <c r="O181" t="n">
         <v>747.1</v>
       </c>
+      <c r="P181" t="n">
+        <v>747.1</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -9358,6 +9903,9 @@
       <c r="O182" t="n">
         <v>1220.67</v>
       </c>
+      <c r="P182" t="n">
+        <v>1220.67</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -9407,6 +9955,9 @@
       <c r="O183" t="n">
         <v>928.6799999999999</v>
       </c>
+      <c r="P183" t="n">
+        <v>928.6799999999999</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -9456,6 +10007,9 @@
       <c r="O184" t="n">
         <v>1415.99</v>
       </c>
+      <c r="P184" t="n">
+        <v>1415.99</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -9505,6 +10059,9 @@
       <c r="O185" t="n">
         <v>1009.05</v>
       </c>
+      <c r="P185" t="n">
+        <v>1009.05</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -9554,6 +10111,9 @@
       <c r="O186" t="n">
         <v>746.04</v>
       </c>
+      <c r="P186" t="n">
+        <v>746.04</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -9603,6 +10163,9 @@
       <c r="O187" t="n">
         <v>1074.15</v>
       </c>
+      <c r="P187" t="n">
+        <v>1074.15</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -9652,6 +10215,9 @@
       <c r="O188" t="n">
         <v>733.72</v>
       </c>
+      <c r="P188" t="n">
+        <v>733.72</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -9701,6 +10267,9 @@
       <c r="O189" t="n">
         <v>720.4</v>
       </c>
+      <c r="P189" t="n">
+        <v>720.4</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -9750,6 +10319,9 @@
       <c r="O190" t="n">
         <v>1213.65</v>
       </c>
+      <c r="P190" t="n">
+        <v>1213.65</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -9799,6 +10371,9 @@
       <c r="O191" t="n">
         <v>909.96</v>
       </c>
+      <c r="P191" t="n">
+        <v>909.96</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -9848,6 +10423,9 @@
       <c r="O192" t="n">
         <v>1399.5</v>
       </c>
+      <c r="P192" t="n">
+        <v>1399.5</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -9897,6 +10475,9 @@
       <c r="O193" t="n">
         <v>747.38</v>
       </c>
+      <c r="P193" t="n">
+        <v>747.38</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -9946,6 +10527,9 @@
       <c r="O194" t="n">
         <v>730.9299999999999</v>
       </c>
+      <c r="P194" t="n">
+        <v>730.9299999999999</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -9995,6 +10579,9 @@
       <c r="O195" t="n">
         <v>747.24</v>
       </c>
+      <c r="P195" t="n">
+        <v>747.24</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -10044,6 +10631,9 @@
       <c r="O196" t="n">
         <v>1645.95</v>
       </c>
+      <c r="P196" t="n">
+        <v>1645.95</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -10093,6 +10683,9 @@
       <c r="O197" t="n">
         <v>1322.37</v>
       </c>
+      <c r="P197" t="n">
+        <v>1322.37</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -10142,6 +10735,9 @@
       <c r="O198" t="n">
         <v>744.97</v>
       </c>
+      <c r="P198" t="n">
+        <v>744.97</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -10191,6 +10787,9 @@
       <c r="O199" t="n">
         <v>1222.16</v>
       </c>
+      <c r="P199" t="n">
+        <v>1222.16</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -10240,6 +10839,9 @@
       <c r="O200" t="n">
         <v>734.6799999999999</v>
       </c>
+      <c r="P200" t="n">
+        <v>734.6799999999999</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -10289,6 +10891,9 @@
       <c r="O201" t="n">
         <v>1200.16</v>
       </c>
+      <c r="P201" t="n">
+        <v>1200.16</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -10338,6 +10943,9 @@
       <c r="O202" t="n">
         <v>1388.54</v>
       </c>
+      <c r="P202" t="n">
+        <v>1388.54</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -10387,6 +10995,9 @@
       <c r="O203" t="n">
         <v>893.04</v>
       </c>
+      <c r="P203" t="n">
+        <v>893.04</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -10436,6 +11047,9 @@
       <c r="O204" t="n">
         <v>1315.84</v>
       </c>
+      <c r="P204" t="n">
+        <v>1315.84</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -10485,6 +11099,9 @@
       <c r="O205" t="n">
         <v>1412.61</v>
       </c>
+      <c r="P205" t="n">
+        <v>1412.61</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -10534,6 +11151,9 @@
       <c r="O206" t="n">
         <v>746.29</v>
       </c>
+      <c r="P206" t="n">
+        <v>746.29</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -10583,6 +11203,9 @@
       <c r="O207" t="n">
         <v>1483.71</v>
       </c>
+      <c r="P207" t="n">
+        <v>1483.71</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -10632,6 +11255,9 @@
       <c r="O208" t="n">
         <v>1499.77</v>
       </c>
+      <c r="P208" t="n">
+        <v>1499.77</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -10681,6 +11307,9 @@
       <c r="O209" t="n">
         <v>957.73</v>
       </c>
+      <c r="P209" t="n">
+        <v>957.73</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -10730,6 +11359,9 @@
       <c r="O210" t="n">
         <v>1220.46</v>
       </c>
+      <c r="P210" t="n">
+        <v>1220.46</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -10779,6 +11411,9 @@
       <c r="O211" t="n">
         <v>1368.23</v>
       </c>
+      <c r="P211" t="n">
+        <v>1368.23</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -10828,6 +11463,9 @@
       <c r="O212" t="n">
         <v>1139.17</v>
       </c>
+      <c r="P212" t="n">
+        <v>1139.17</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -10877,6 +11515,9 @@
       <c r="O213" t="n">
         <v>1023.38</v>
       </c>
+      <c r="P213" t="n">
+        <v>1023.38</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -10926,6 +11567,9 @@
       <c r="O214" t="n">
         <v>746.59</v>
       </c>
+      <c r="P214" t="n">
+        <v>746.59</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -10975,6 +11619,9 @@
       <c r="O215" t="n">
         <v>1134.27</v>
       </c>
+      <c r="P215" t="n">
+        <v>1134.27</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -11024,6 +11671,9 @@
       <c r="O216" t="n">
         <v>747.22</v>
       </c>
+      <c r="P216" t="n">
+        <v>747.22</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -11073,6 +11723,9 @@
       <c r="O217" t="n">
         <v>1362.71</v>
       </c>
+      <c r="P217" t="n">
+        <v>1362.71</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -11122,6 +11775,9 @@
       <c r="O218" t="n">
         <v>740.6799999999999</v>
       </c>
+      <c r="P218" t="n">
+        <v>740.6799999999999</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -11171,6 +11827,9 @@
       <c r="O219" t="n">
         <v>1088.28</v>
       </c>
+      <c r="P219" t="n">
+        <v>1088.28</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -11220,6 +11879,9 @@
       <c r="O220" t="n">
         <v>1718.08</v>
       </c>
+      <c r="P220" t="n">
+        <v>1718.08</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -11269,6 +11931,9 @@
       <c r="O221" t="n">
         <v>1105.35</v>
       </c>
+      <c r="P221" t="n">
+        <v>1105.35</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -11318,6 +11983,9 @@
       <c r="O222" t="n">
         <v>811.04</v>
       </c>
+      <c r="P222" t="n">
+        <v>811.04</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -11367,6 +12035,9 @@
       <c r="O223" t="n">
         <v>1345.73</v>
       </c>
+      <c r="P223" t="n">
+        <v>1345.73</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -11416,6 +12087,9 @@
       <c r="O224" t="n">
         <v>746.47</v>
       </c>
+      <c r="P224" t="n">
+        <v>746.47</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -11465,6 +12139,9 @@
       <c r="O225" t="n">
         <v>736.37</v>
       </c>
+      <c r="P225" t="n">
+        <v>736.37</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -11514,6 +12191,9 @@
       <c r="O226" t="n">
         <v>1141.99</v>
       </c>
+      <c r="P226" t="n">
+        <v>1141.99</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -11563,6 +12243,9 @@
       <c r="O227" t="n">
         <v>860.4400000000001</v>
       </c>
+      <c r="P227" t="n">
+        <v>860.4400000000001</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -11612,6 +12295,9 @@
       <c r="O228" t="n">
         <v>787.4299999999999</v>
       </c>
+      <c r="P228" t="n">
+        <v>787.4299999999999</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -11661,6 +12347,9 @@
       <c r="O229" t="n">
         <v>1288.79</v>
       </c>
+      <c r="P229" t="n">
+        <v>1288.79</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -11710,6 +12399,9 @@
       <c r="O230" t="n">
         <v>747.47</v>
       </c>
+      <c r="P230" t="n">
+        <v>747.47</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -11759,6 +12451,9 @@
       <c r="O231" t="n">
         <v>1223.92</v>
       </c>
+      <c r="P231" t="n">
+        <v>1223.92</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -11808,6 +12503,9 @@
       <c r="O232" t="n">
         <v>741.45</v>
       </c>
+      <c r="P232" t="n">
+        <v>741.45</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -11855,6 +12553,9 @@
         <v>749.61</v>
       </c>
       <c r="O233" t="n">
+        <v>749.26</v>
+      </c>
+      <c r="P233" t="n">
         <v>749.26</v>
       </c>
     </row>

--- a/Input Data/Update Elo/Elo By Year.xlsx
+++ b/Input Data/Update Elo/Elo By Year.xlsx
@@ -3612,7 +3612,7 @@
         <v>1636.25</v>
       </c>
       <c r="P61" t="n">
-        <v>1636.25</v>
+        <v>1529.39</v>
       </c>
     </row>
     <row r="62">
@@ -4808,7 +4808,7 @@
         <v>1526.67</v>
       </c>
       <c r="P84" t="n">
-        <v>1636.14</v>
+        <v>1526.67</v>
       </c>
     </row>
     <row r="85">
@@ -5640,7 +5640,7 @@
         <v>1405.18</v>
       </c>
       <c r="P100" t="n">
-        <v>1405.18</v>
+        <v>1512.05</v>
       </c>
     </row>
     <row r="101">
@@ -6160,7 +6160,7 @@
         <v>1781.13</v>
       </c>
       <c r="P110" t="n">
-        <v>1671.66</v>
+        <v>1781.13</v>
       </c>
     </row>
     <row r="111">

--- a/Input Data/Update Elo/Elo By Year.xlsx
+++ b/Input Data/Update Elo/Elo By Year.xlsx
@@ -4808,7 +4808,7 @@
         <v>1526.67</v>
       </c>
       <c r="P84" t="n">
-        <v>1526.67</v>
+        <v>1636.14</v>
       </c>
     </row>
     <row r="85">
@@ -6160,7 +6160,7 @@
         <v>1781.13</v>
       </c>
       <c r="P110" t="n">
-        <v>1781.13</v>
+        <v>1671.66</v>
       </c>
     </row>
     <row r="111">

--- a/Input Data/Update Elo/Elo By Year.xlsx
+++ b/Input Data/Update Elo/Elo By Year.xlsx
@@ -700,7 +700,7 @@
         <v>1682.34</v>
       </c>
       <c r="P5" t="n">
-        <v>1682.34</v>
+        <v>1769.19</v>
       </c>
     </row>
     <row r="6">
@@ -3612,7 +3612,7 @@
         <v>1636.25</v>
       </c>
       <c r="P61" t="n">
-        <v>1529.39</v>
+        <v>1636.25</v>
       </c>
     </row>
     <row r="62">
@@ -3872,7 +3872,7 @@
         <v>1789.55</v>
       </c>
       <c r="P66" t="n">
-        <v>1789.55</v>
+        <v>1702.69</v>
       </c>
     </row>
     <row r="67">
@@ -4808,7 +4808,7 @@
         <v>1526.67</v>
       </c>
       <c r="P84" t="n">
-        <v>1636.14</v>
+        <v>1526.67</v>
       </c>
     </row>
     <row r="85">
@@ -5640,7 +5640,7 @@
         <v>1405.18</v>
       </c>
       <c r="P100" t="n">
-        <v>1512.05</v>
+        <v>1405.18</v>
       </c>
     </row>
     <row r="101">
@@ -6160,7 +6160,7 @@
         <v>1781.13</v>
       </c>
       <c r="P110" t="n">
-        <v>1671.66</v>
+        <v>1781.13</v>
       </c>
     </row>
     <row r="111">

--- a/Input Data/Update Elo/Elo By Year.xlsx
+++ b/Input Data/Update Elo/Elo By Year.xlsx
@@ -3612,7 +3612,7 @@
         <v>1636.25</v>
       </c>
       <c r="P61" t="n">
-        <v>1636.25</v>
+        <v>1529.39</v>
       </c>
     </row>
     <row r="62">
@@ -5640,7 +5640,7 @@
         <v>1405.18</v>
       </c>
       <c r="P100" t="n">
-        <v>1405.18</v>
+        <v>1512.05</v>
       </c>
     </row>
     <row r="101">

--- a/Input Data/Update Elo/Elo By Year.xlsx
+++ b/Input Data/Update Elo/Elo By Year.xlsx
@@ -4808,7 +4808,7 @@
         <v>1526.67</v>
       </c>
       <c r="P84" t="n">
-        <v>1526.67</v>
+        <v>1636.14</v>
       </c>
     </row>
     <row r="85">
@@ -6160,7 +6160,7 @@
         <v>1781.13</v>
       </c>
       <c r="P110" t="n">
-        <v>1781.13</v>
+        <v>1671.66</v>
       </c>
     </row>
     <row r="111">
@@ -8344,7 +8344,7 @@
         <v>1386.66</v>
       </c>
       <c r="P152" t="n">
-        <v>1386.66</v>
+        <v>1496.63</v>
       </c>
     </row>
     <row r="153">
@@ -10632,7 +10632,7 @@
         <v>1645.95</v>
       </c>
       <c r="P196" t="n">
-        <v>1645.95</v>
+        <v>1535.98</v>
       </c>
     </row>
     <row r="197">
